--- a/conversion.xlsx
+++ b/conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="858">
   <si>
     <t>' r underbar</t>
   </si>
@@ -2586,6 +2586,18 @@
   </si>
   <si>
     <t>Java Test Template</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>manually added to sanskrit99 conversion</t>
+  </si>
+  <si>
+    <t>same in both, conversion not needed</t>
+  </si>
+  <si>
+    <t>already present and uses special logic for conversion because of placement</t>
   </si>
 </sst>
 </file>
@@ -2701,13 +2713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2721,8 +2733,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1139">
+  <cellStyleXfs count="1153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3897,10 +3923,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1139">
+  <cellStyles count="1153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4470,6 +4496,13 @@
     <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5039,17 +5072,16 @@
     <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6740,10 +6772,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6781,7 +6813,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2">
         <f>HEX2DEC(MID(B2,3,4))</f>
         <v>50</v>
@@ -6803,11 +6835,11 @@
         <v>\x32</v>
       </c>
       <c r="H2" s="14" t="str">
-        <f t="shared" ref="H1:H64" si="0">CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
+        <f t="shared" ref="H2:H64" si="0">CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
         <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="1">HEX2DEC(MID(B3,3,4))</f>
         <v>51</v>
@@ -6833,7 +6865,7 @@
         <v>@Test public void testConvert_51() throws Exception { verify( (char) 51, "3"); }</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -6859,7 +6891,7 @@
         <v>@Test public void testConvert_52() throws Exception { verify( (char) 52, "4"); }</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -6885,7 +6917,7 @@
         <v>@Test public void testConvert_53() throws Exception { verify( (char) 53, "5"); }</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -6911,7 +6943,7 @@
         <v>@Test public void testConvert_54() throws Exception { verify( (char) 54, "6"); }</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -6937,7 +6969,7 @@
         <v>@Test public void testConvert_55() throws Exception { verify( (char) 55, "7"); }</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -6963,7 +6995,7 @@
         <v>@Test public void testConvert_56() throws Exception { verify( (char) 56, "8"); }</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -6989,7 +7021,7 @@
         <v>@Test public void testConvert_57() throws Exception { verify( (char) 57, "9"); }</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7015,7 +7047,7 @@
         <v>@Test public void testConvert_58() throws Exception { verify( (char) 58, ":"); }</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7041,7 +7073,7 @@
         <v>@Test public void testConvert_59() throws Exception { verify( (char) 59, ";"); }</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7067,7 +7099,7 @@
         <v>@Test public void testConvert_60() throws Exception { verify( (char) 60, "&lt;"); }</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7093,7 +7125,7 @@
         <v>@Test public void testConvert_61() throws Exception { verify( (char) 61, "="); }</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7119,7 +7151,7 @@
         <v>@Test public void testConvert_62() throws Exception { verify( (char) 62, "&gt;"); }</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7145,7 +7177,7 @@
         <v>@Test public void testConvert_63() throws Exception { verify( (char) 63, "?"); }</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7171,7 +7203,7 @@
         <v>@Test public void testConvert_64() throws Exception { verify( (char) 64, "@"); }</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7197,7 +7229,7 @@
         <v>@Test public void testConvert_65() throws Exception { verify( (char) 65, "A"); }</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -7223,7 +7255,7 @@
         <v>@Test public void testConvert_66() throws Exception { verify( (char) 66, "B"); }</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -7249,7 +7281,7 @@
         <v>@Test public void testConvert_67() throws Exception { verify( (char) 67, "C"); }</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -7275,7 +7307,7 @@
         <v>@Test public void testConvert_68() throws Exception { verify( (char) 68, "D"); }</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -7301,7 +7333,7 @@
         <v>@Test public void testConvert_69() throws Exception { verify( (char) 69, "E"); }</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -7327,7 +7359,7 @@
         <v>@Test public void testConvert_70() throws Exception { verify( (char) 70, "F"); }</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -7353,7 +7385,7 @@
         <v>@Test public void testConvert_71() throws Exception { verify( (char) 71, "G"); }</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -7379,7 +7411,7 @@
         <v>@Test public void testConvert_72() throws Exception { verify( (char) 72, "H"); }</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -7405,7 +7437,7 @@
         <v>@Test public void testConvert_73() throws Exception { verify( (char) 73, "I"); }</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -7431,7 +7463,7 @@
         <v>@Test public void testConvert_74() throws Exception { verify( (char) 74, "J"); }</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -7457,7 +7489,7 @@
         <v>@Test public void testConvert_75() throws Exception { verify( (char) 75, "K"); }</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -7483,7 +7515,7 @@
         <v>@Test public void testConvert_76() throws Exception { verify( (char) 76, "L"); }</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -7509,7 +7541,7 @@
         <v>@Test public void testConvert_77() throws Exception { verify( (char) 77, "M"); }</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7535,7 +7567,7 @@
         <v>@Test public void testConvert_78() throws Exception { verify( (char) 78, "N"); }</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -7561,7 +7593,7 @@
         <v>@Test public void testConvert_79() throws Exception { verify( (char) 79, "O"); }</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7587,7 +7619,7 @@
         <v>@Test public void testConvert_80() throws Exception { verify( (char) 80, "P"); }</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7621,7 +7653,7 @@
       <c r="B34" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>285</v>
       </c>
       <c r="D34">
@@ -7639,7 +7671,7 @@
         <v>@Test public void testConvert_82() throws Exception { verify( (char) 82, "R"); }</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7665,7 +7697,7 @@
         <v>@Test public void testConvert_83() throws Exception { verify( (char) 83, "S"); }</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7691,7 +7723,7 @@
         <v>@Test public void testConvert_84() throws Exception { verify( (char) 84, "T"); }</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -7717,7 +7749,7 @@
         <v>@Test public void testConvert_85() throws Exception { verify( (char) 85, "U"); }</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -7743,7 +7775,7 @@
         <v>@Test public void testConvert_86() throws Exception { verify( (char) 86, "V"); }</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -7769,7 +7801,7 @@
         <v>@Test public void testConvert_87() throws Exception { verify( (char) 87, "W"); }</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -7795,7 +7827,7 @@
         <v>@Test public void testConvert_88() throws Exception { verify( (char) 88, "X"); }</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7821,7 +7853,7 @@
         <v>@Test public void testConvert_89() throws Exception { verify( (char) 89, "Y"); }</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -7847,7 +7879,7 @@
         <v>@Test public void testConvert_90() throws Exception { verify( (char) 90, "Z"); }</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -7873,7 +7905,7 @@
         <v>@Test public void testConvert_91() throws Exception { verify( (char) 91, "["); }</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -7899,7 +7931,7 @@
         <v>@Test public void testConvert_92() throws Exception { verify( (char) 92, "\"); }</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -7925,7 +7957,7 @@
         <v>@Test public void testConvert_93() throws Exception { verify( (char) 93, "]"); }</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -7951,7 +7983,7 @@
         <v>@Test public void testConvert_94() throws Exception { verify( (char) 94, "^"); }</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -7977,7 +8009,7 @@
         <v>@Test public void testConvert_95() throws Exception { verify( (char) 95, "_"); }</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -8003,7 +8035,7 @@
         <v>@Test public void testConvert_96() throws Exception { verify( (char) 96, "`"); }</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -8029,7 +8061,7 @@
         <v>@Test public void testConvert_97() throws Exception { verify( (char) 97, "a"); }</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -8055,7 +8087,7 @@
         <v>@Test public void testConvert_98() throws Exception { verify( (char) 98, "b"); }</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -8081,7 +8113,7 @@
         <v>@Test public void testConvert_99() throws Exception { verify( (char) 99, "c"); }</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -8107,7 +8139,7 @@
         <v>@Test public void testConvert_100() throws Exception { verify( (char) 100, "d"); }</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -8133,7 +8165,7 @@
         <v>@Test public void testConvert_101() throws Exception { verify( (char) 101, "e"); }</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -8159,7 +8191,7 @@
         <v>@Test public void testConvert_102() throws Exception { verify( (char) 102, "f"); }</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -8185,7 +8217,7 @@
         <v>@Test public void testConvert_103() throws Exception { verify( (char) 103, "g"); }</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -8219,7 +8251,7 @@
       <c r="B57" t="s">
         <v>359</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="28" t="s">
         <v>360</v>
       </c>
       <c r="D57">
@@ -8237,7 +8269,7 @@
         <v>@Test public void testConvert_105() throws Exception { verify( (char) 105, "i"); }</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -8263,7 +8295,7 @@
         <v>@Test public void testConvert_106() throws Exception { verify( (char) 106, "j"); }</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -8289,7 +8321,7 @@
         <v>@Test public void testConvert_107() throws Exception { verify( (char) 107, "k"); }</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -8315,7 +8347,7 @@
         <v>@Test public void testConvert_108() throws Exception { verify( (char) 108, "l"); }</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -8341,7 +8373,7 @@
         <v>@Test public void testConvert_109() throws Exception { verify( (char) 109, "m"); }</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -8367,7 +8399,7 @@
         <v>@Test public void testConvert_110() throws Exception { verify( (char) 110, "n"); }</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -8393,7 +8425,7 @@
         <v>@Test public void testConvert_111() throws Exception { verify( (char) 111, "o"); }</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -8419,7 +8451,7 @@
         <v>@Test public void testConvert_112() throws Exception { verify( (char) 112, "p"); }</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -8445,7 +8477,7 @@
         <v>@Test public void testConvert_113() throws Exception { verify( (char) 113, "q"); }</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -8471,7 +8503,7 @@
         <v>@Test public void testConvert_114() throws Exception { verify( (char) 114, "r"); }</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67">
         <f t="shared" ref="A67:A78" si="4">HEX2DEC(MID(B67,3,4))</f>
         <v>115</v>
@@ -8497,7 +8529,7 @@
         <v>@Test public void testConvert_115() throws Exception { verify( (char) 115, "s"); }</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68">
         <f t="shared" si="4"/>
         <v>116</v>
@@ -8523,7 +8555,7 @@
         <v>@Test public void testConvert_116() throws Exception { verify( (char) 116, "t"); }</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>117</v>
@@ -8549,7 +8581,7 @@
         <v>@Test public void testConvert_117() throws Exception { verify( (char) 117, "u"); }</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>118</v>
@@ -8575,7 +8607,7 @@
         <v>@Test public void testConvert_118() throws Exception { verify( (char) 118, "v"); }</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>119</v>
@@ -8601,7 +8633,7 @@
         <v>@Test public void testConvert_119() throws Exception { verify( (char) 119, "w"); }</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>120</v>
@@ -8627,7 +8659,7 @@
         <v>@Test public void testConvert_120() throws Exception { verify( (char) 120, "x"); }</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>121</v>
@@ -8653,7 +8685,7 @@
         <v>@Test public void testConvert_121() throws Exception { verify( (char) 121, "y"); }</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>122</v>
@@ -8679,7 +8711,7 @@
         <v>@Test public void testConvert_122() throws Exception { verify( (char) 122, "z"); }</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>123</v>
@@ -8705,7 +8737,7 @@
         <v>@Test public void testConvert_123() throws Exception { verify( (char) 123, "{"); }</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>124</v>
@@ -8731,7 +8763,7 @@
         <v>@Test public void testConvert_124() throws Exception { verify( (char) 124, "|"); }</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>125</v>
@@ -8757,7 +8789,7 @@
         <v>@Test public void testConvert_125() throws Exception { verify( (char) 125, "}"); }</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>126</v>
@@ -8828,7 +8860,7 @@
         <v>\xc2\x81</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82">
         <f t="shared" ref="A82:A92" si="7">HEX2DEC(MID(B82,3,4))</f>
         <v>130</v>
@@ -8851,7 +8883,7 @@
         <v>@Test public void testConvert_130() throws Exception { verify( (char) 130, ""); }</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83">
         <f t="shared" si="7"/>
         <v>131</v>
@@ -8874,7 +8906,7 @@
         <v>@Test public void testConvert_131() throws Exception { verify( (char) 131, ""); }</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84">
         <f t="shared" si="7"/>
         <v>132</v>
@@ -8897,7 +8929,7 @@
         <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85">
         <f t="shared" si="7"/>
         <v>133</v>
@@ -8920,7 +8952,7 @@
         <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86">
         <f t="shared" si="7"/>
         <v>134</v>
@@ -8943,7 +8975,7 @@
         <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87">
         <f t="shared" si="7"/>
         <v>135</v>
@@ -8966,7 +8998,7 @@
         <v>@Test public void testConvert_135() throws Exception { verify( (char) 135, ""); }</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88">
         <f t="shared" si="7"/>
         <v>136</v>
@@ -8989,7 +9021,7 @@
         <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89">
         <f t="shared" si="7"/>
         <v>137</v>
@@ -9012,7 +9044,7 @@
         <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90">
         <f t="shared" si="7"/>
         <v>138</v>
@@ -9035,7 +9067,7 @@
         <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91">
         <f t="shared" si="7"/>
         <v>139</v>
@@ -9058,7 +9090,7 @@
         <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92">
         <f t="shared" si="7"/>
         <v>140</v>
@@ -9141,7 +9173,7 @@
         <v>\xc2\x90</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97">
         <f t="shared" ref="A97:A108" si="9">HEX2DEC(MID(B97,3,4))</f>
         <v>145</v>
@@ -9164,7 +9196,7 @@
         <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98">
         <f t="shared" si="9"/>
         <v>146</v>
@@ -9187,7 +9219,7 @@
         <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99">
         <f t="shared" si="9"/>
         <v>147</v>
@@ -9210,7 +9242,7 @@
         <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100">
         <f t="shared" si="9"/>
         <v>148</v>
@@ -9233,7 +9265,7 @@
         <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101">
         <f t="shared" si="9"/>
         <v>149</v>
@@ -9256,7 +9288,7 @@
         <v>@Test public void testConvert_149() throws Exception { verify( (char) 149, ""); }</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102">
         <f t="shared" si="9"/>
         <v>150</v>
@@ -9279,7 +9311,7 @@
         <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103">
         <f t="shared" si="9"/>
         <v>151</v>
@@ -9302,7 +9334,7 @@
         <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104">
         <f t="shared" si="9"/>
         <v>152</v>
@@ -9325,7 +9357,7 @@
         <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105">
         <f t="shared" si="9"/>
         <v>153</v>
@@ -9348,7 +9380,7 @@
         <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106">
         <f t="shared" si="9"/>
         <v>154</v>
@@ -9371,7 +9403,7 @@
         <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107">
         <f t="shared" si="9"/>
         <v>155</v>
@@ -9394,7 +9426,7 @@
         <v>@Test public void testConvert_155() throws Exception { verify( (char) 155, ""); }</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -9447,7 +9479,7 @@
         <v>\xc2\x9e</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111">
         <f t="shared" ref="A111:A174" si="11">HEX2DEC(MID(B111,3,4))</f>
         <v>159</v>
@@ -9470,7 +9502,7 @@
         <v>@Test public void testConvert_159() throws Exception { verify( (char) 159, ""); }</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112">
         <f t="shared" si="11"/>
         <v>160</v>
@@ -9519,7 +9551,7 @@
         <v>@Test public void testConvert_161() throws Exception { verify( (char) 161, "¡"); }</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114">
         <f t="shared" si="11"/>
         <v>162</v>
@@ -9545,7 +9577,7 @@
         <v>@Test public void testConvert_162() throws Exception { verify( (char) 162, "¢"); }</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115">
         <f t="shared" si="11"/>
         <v>163</v>
@@ -9571,7 +9603,7 @@
         <v>@Test public void testConvert_163() throws Exception { verify( (char) 163, "£"); }</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116">
         <f t="shared" si="11"/>
         <v>164</v>
@@ -9597,7 +9629,7 @@
         <v>@Test public void testConvert_164() throws Exception { verify( (char) 164, "¤"); }</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117">
         <f t="shared" si="11"/>
         <v>165</v>
@@ -9623,7 +9655,7 @@
         <v>@Test public void testConvert_165() throws Exception { verify( (char) 165, "¥"); }</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118">
         <f t="shared" si="11"/>
         <v>166</v>
@@ -9649,7 +9681,7 @@
         <v>@Test public void testConvert_166() throws Exception { verify( (char) 166, "¦"); }</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119">
         <f t="shared" si="11"/>
         <v>167</v>
@@ -9675,7 +9707,7 @@
         <v>@Test public void testConvert_167() throws Exception { verify( (char) 167, "§"); }</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120">
         <f t="shared" si="11"/>
         <v>168</v>
@@ -9696,12 +9728,12 @@
         <f t="shared" si="6"/>
         <v>\xc2\xa8</v>
       </c>
-      <c r="H120" s="14" t="str">
+      <c r="H120" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_168() throws Exception { verify( (char) 168, "¨"); }</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121">
         <f t="shared" si="11"/>
         <v>169</v>
@@ -9722,12 +9754,12 @@
         <f t="shared" si="6"/>
         <v>\xc2\xa9</v>
       </c>
-      <c r="H121" s="14" t="str">
+      <c r="H121" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_169() throws Exception { verify( (char) 169, "©"); }</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122">
         <f t="shared" si="11"/>
         <v>170</v>
@@ -9753,7 +9785,7 @@
         <v>@Test public void testConvert_170() throws Exception { verify( (char) 170, "ª"); }</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123">
         <f t="shared" si="11"/>
         <v>171</v>
@@ -9779,7 +9811,7 @@
         <v>@Test public void testConvert_171() throws Exception { verify( (char) 171, "«"); }</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124">
         <f t="shared" si="11"/>
         <v>172</v>
@@ -9810,10 +9842,10 @@
         <f t="shared" si="11"/>
         <v>173</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="C125" s="26"/>
+      <c r="C125" s="29"/>
       <c r="D125" t="s">
         <v>554</v>
       </c>
@@ -9832,7 +9864,7 @@
         <v>@Test public void testConvert_173() throws Exception { verify( (char) 173, ""); }</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126">
         <f t="shared" si="11"/>
         <v>174</v>
@@ -9858,7 +9890,7 @@
         <v>@Test public void testConvert_174() throws Exception { verify( (char) 174, "®"); }</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127">
         <f t="shared" si="11"/>
         <v>175</v>
@@ -9962,7 +9994,7 @@
         <v>@Test public void testConvert_178() throws Exception { verify( (char) 178, "²"); }</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131">
         <f t="shared" si="11"/>
         <v>179</v>
@@ -9988,7 +10020,7 @@
         <v>@Test public void testConvert_179() throws Exception { verify( (char) 179, "³"); }</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132">
         <f t="shared" si="11"/>
         <v>180</v>
@@ -10014,7 +10046,7 @@
         <v>@Test public void testConvert_180() throws Exception { verify( (char) 180, "´"); }</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133">
         <f t="shared" si="11"/>
         <v>181</v>
@@ -10040,7 +10072,7 @@
         <v>@Test public void testConvert_181() throws Exception { verify( (char) 181, "µ"); }</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134">
         <f t="shared" si="11"/>
         <v>182</v>
@@ -10074,7 +10106,7 @@
       <c r="B135" t="s">
         <v>592</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="29" t="s">
         <v>593</v>
       </c>
       <c r="D135" t="s">
@@ -10095,7 +10127,7 @@
         <v>@Test public void testConvert_183() throws Exception { verify( (char) 183, "·"); }</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136">
         <f t="shared" si="11"/>
         <v>184</v>
@@ -10121,7 +10153,7 @@
         <v>@Test public void testConvert_184() throws Exception { verify( (char) 184, "¸"); }</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137">
         <f t="shared" si="11"/>
         <v>185</v>
@@ -10147,7 +10179,7 @@
         <v>@Test public void testConvert_185() throws Exception { verify( (char) 185, "¹"); }</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138">
         <f t="shared" si="11"/>
         <v>186</v>
@@ -10173,7 +10205,7 @@
         <v>@Test public void testConvert_186() throws Exception { verify( (char) 186, "º"); }</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139">
         <f t="shared" si="11"/>
         <v>187</v>
@@ -10199,7 +10231,7 @@
         <v>@Test public void testConvert_187() throws Exception { verify( (char) 187, "»"); }</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140">
         <f t="shared" si="11"/>
         <v>188</v>
@@ -10225,7 +10257,7 @@
         <v>@Test public void testConvert_188() throws Exception { verify( (char) 188, "¼"); }</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141">
         <f t="shared" si="11"/>
         <v>189</v>
@@ -10251,7 +10283,7 @@
         <v>@Test public void testConvert_189() throws Exception { verify( (char) 189, "½"); }</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142">
         <f t="shared" si="11"/>
         <v>190</v>
@@ -10277,7 +10309,7 @@
         <v>@Test public void testConvert_190() throws Exception { verify( (char) 190, "¾"); }</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143">
         <f t="shared" si="11"/>
         <v>191</v>
@@ -10303,7 +10335,7 @@
         <v>@Test public void testConvert_191() throws Exception { verify( (char) 191, "¿"); }</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144">
         <f t="shared" si="11"/>
         <v>192</v>
@@ -10329,7 +10361,7 @@
         <v>@Test public void testConvert_192() throws Exception { verify( (char) 192, "À"); }</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1">
+    <row r="145" spans="1:8">
       <c r="A145">
         <f t="shared" si="11"/>
         <v>193</v>
@@ -10355,7 +10387,7 @@
         <v>@Test public void testConvert_193() throws Exception { verify( (char) 193, "Á"); }</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1">
+    <row r="146" spans="1:8">
       <c r="A146">
         <f t="shared" si="11"/>
         <v>194</v>
@@ -10381,7 +10413,7 @@
         <v>@Test public void testConvert_194() throws Exception { verify( (char) 194, "Â"); }</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1">
+    <row r="147" spans="1:8">
       <c r="A147">
         <f t="shared" si="11"/>
         <v>195</v>
@@ -10407,7 +10439,7 @@
         <v>@Test public void testConvert_195() throws Exception { verify( (char) 195, "Ã"); }</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1">
+    <row r="148" spans="1:8">
       <c r="A148">
         <f t="shared" si="11"/>
         <v>196</v>
@@ -10433,7 +10465,7 @@
         <v>@Test public void testConvert_196() throws Exception { verify( (char) 196, "Ä"); }</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1">
+    <row r="149" spans="1:8">
       <c r="A149">
         <f t="shared" si="11"/>
         <v>197</v>
@@ -10459,7 +10491,7 @@
         <v>@Test public void testConvert_197() throws Exception { verify( (char) 197, "Å"); }</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1">
+    <row r="150" spans="1:8">
       <c r="A150">
         <f t="shared" si="11"/>
         <v>198</v>
@@ -10485,7 +10517,7 @@
         <v>@Test public void testConvert_198() throws Exception { verify( (char) 198, "Æ"); }</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1">
+    <row r="151" spans="1:8">
       <c r="A151">
         <f t="shared" si="11"/>
         <v>199</v>
@@ -10511,7 +10543,7 @@
         <v>@Test public void testConvert_199() throws Exception { verify( (char) 199, "Ç"); }</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1">
+    <row r="152" spans="1:8">
       <c r="A152">
         <f t="shared" si="11"/>
         <v>200</v>
@@ -10537,7 +10569,7 @@
         <v>@Test public void testConvert_200() throws Exception { verify( (char) 200, "È"); }</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1">
+    <row r="153" spans="1:8">
       <c r="A153">
         <f t="shared" si="11"/>
         <v>201</v>
@@ -10563,7 +10595,7 @@
         <v>@Test public void testConvert_201() throws Exception { verify( (char) 201, "É"); }</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1">
+    <row r="154" spans="1:8">
       <c r="A154">
         <f t="shared" si="11"/>
         <v>202</v>
@@ -10589,7 +10621,7 @@
         <v>@Test public void testConvert_202() throws Exception { verify( (char) 202, "Ê"); }</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1">
+    <row r="155" spans="1:8">
       <c r="A155">
         <f t="shared" si="11"/>
         <v>203</v>
@@ -10615,7 +10647,7 @@
         <v>@Test public void testConvert_203() throws Exception { verify( (char) 203, "Ë"); }</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1">
+    <row r="156" spans="1:8">
       <c r="A156">
         <f t="shared" si="11"/>
         <v>204</v>
@@ -10667,7 +10699,7 @@
         <v>@Test public void testConvert_205() throws Exception { verify( (char) 205, "Í"); }</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1">
+    <row r="158" spans="1:8">
       <c r="A158">
         <f t="shared" si="11"/>
         <v>206</v>
@@ -10693,7 +10725,7 @@
         <v>@Test public void testConvert_206() throws Exception { verify( (char) 206, "Î"); }</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1">
+    <row r="159" spans="1:8">
       <c r="A159">
         <f t="shared" si="11"/>
         <v>207</v>
@@ -10745,7 +10777,7 @@
         <v>@Test public void testConvert_208() throws Exception { verify( (char) 208, "Ð"); }</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161">
         <f t="shared" si="11"/>
         <v>209</v>
@@ -10797,7 +10829,7 @@
         <v>@Test public void testConvert_210() throws Exception { verify( (char) 210, "Ò"); }</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1">
+    <row r="163" spans="1:8">
       <c r="A163">
         <f t="shared" si="11"/>
         <v>211</v>
@@ -10823,7 +10855,7 @@
         <v>@Test public void testConvert_211() throws Exception { verify( (char) 211, "Ó"); }</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1">
+    <row r="164" spans="1:8">
       <c r="A164">
         <f t="shared" si="11"/>
         <v>212</v>
@@ -10849,7 +10881,7 @@
         <v>@Test public void testConvert_212() throws Exception { verify( (char) 212, "Ô"); }</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1">
+    <row r="165" spans="1:8">
       <c r="A165">
         <f t="shared" si="11"/>
         <v>213</v>
@@ -10875,7 +10907,7 @@
         <v>@Test public void testConvert_213() throws Exception { verify( (char) 213, "Õ"); }</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1">
+    <row r="166" spans="1:8">
       <c r="A166">
         <f t="shared" si="11"/>
         <v>214</v>
@@ -10927,7 +10959,7 @@
         <v>@Test public void testConvert_215() throws Exception { verify( (char) 215, "×"); }</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1">
+    <row r="168" spans="1:8">
       <c r="A168">
         <f t="shared" si="11"/>
         <v>216</v>
@@ -10953,7 +10985,7 @@
         <v>@Test public void testConvert_216() throws Exception { verify( (char) 216, "Ø"); }</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1">
+    <row r="169" spans="1:8">
       <c r="A169">
         <f t="shared" si="11"/>
         <v>217</v>
@@ -10979,7 +11011,7 @@
         <v>@Test public void testConvert_217() throws Exception { verify( (char) 217, "Ù"); }</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1">
+    <row r="170" spans="1:8">
       <c r="A170">
         <f t="shared" si="11"/>
         <v>218</v>
@@ -11031,7 +11063,7 @@
         <v>@Test public void testConvert_219() throws Exception { verify( (char) 219, "Û"); }</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1">
+    <row r="172" spans="1:8">
       <c r="A172">
         <f t="shared" si="11"/>
         <v>220</v>
@@ -11057,7 +11089,7 @@
         <v>@Test public void testConvert_220() throws Exception { verify( (char) 220, "Ü"); }</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1">
+    <row r="173" spans="1:8">
       <c r="A173">
         <f t="shared" si="11"/>
         <v>221</v>
@@ -11109,7 +11141,7 @@
         <v>@Test public void testConvert_222() throws Exception { verify( (char) 222, "Þ"); }</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1">
+    <row r="175" spans="1:8">
       <c r="A175">
         <f t="shared" ref="A175:A207" si="14">HEX2DEC(MID(B175,3,4))</f>
         <v>223</v>
@@ -11135,7 +11167,7 @@
         <v>@Test public void testConvert_223() throws Exception { verify( (char) 223, "ß"); }</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1">
+    <row r="176" spans="1:8">
       <c r="A176">
         <f t="shared" si="14"/>
         <v>224</v>
@@ -11161,7 +11193,7 @@
         <v>@Test public void testConvert_224() throws Exception { verify( (char) 224, "à"); }</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1">
+    <row r="177" spans="1:8">
       <c r="A177">
         <f t="shared" si="14"/>
         <v>225</v>
@@ -11242,7 +11274,7 @@
         <v>@Test public void testConvert_227() throws Exception { verify( (char) 227, "ã"); }</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180">
         <f t="shared" si="14"/>
         <v>228</v>
@@ -11294,7 +11326,7 @@
         <v>@Test public void testConvert_229() throws Exception { verify( (char) 229, "å"); }</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182">
         <f t="shared" si="14"/>
         <v>230</v>
@@ -11320,7 +11352,7 @@
         <v>@Test public void testConvert_230() throws Exception { verify( (char) 230, "æ"); }</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1">
+    <row r="183" spans="1:8">
       <c r="A183">
         <f t="shared" si="14"/>
         <v>231</v>
@@ -11346,7 +11378,7 @@
         <v>@Test public void testConvert_231() throws Exception { verify( (char) 231, "ç"); }</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1">
+    <row r="184" spans="1:8">
       <c r="A184">
         <f t="shared" si="14"/>
         <v>232</v>
@@ -11372,7 +11404,7 @@
         <v>@Test public void testConvert_232() throws Exception { verify( (char) 232, "è"); }</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1">
+    <row r="185" spans="1:8">
       <c r="A185">
         <f t="shared" si="14"/>
         <v>233</v>
@@ -11398,7 +11430,7 @@
         <v>@Test public void testConvert_233() throws Exception { verify( (char) 233, "é"); }</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1">
+    <row r="186" spans="1:8">
       <c r="A186">
         <f t="shared" si="14"/>
         <v>234</v>
@@ -11450,7 +11482,7 @@
         <v>@Test public void testConvert_235() throws Exception { verify( (char) 235, "ë"); }</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1">
+    <row r="188" spans="1:8">
       <c r="A188">
         <f t="shared" si="14"/>
         <v>236</v>
@@ -11476,7 +11508,7 @@
         <v>@Test public void testConvert_236() throws Exception { verify( (char) 236, "ì"); }</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1">
+    <row r="189" spans="1:8">
       <c r="A189">
         <f t="shared" si="14"/>
         <v>237</v>
@@ -11502,7 +11534,7 @@
         <v>@Test public void testConvert_237() throws Exception { verify( (char) 237, "í"); }</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1">
+    <row r="190" spans="1:8">
       <c r="A190">
         <f t="shared" si="14"/>
         <v>238</v>
@@ -11528,7 +11560,7 @@
         <v>@Test public void testConvert_238() throws Exception { verify( (char) 238, "î"); }</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1">
+    <row r="191" spans="1:8">
       <c r="A191">
         <f t="shared" si="14"/>
         <v>239</v>
@@ -11554,7 +11586,7 @@
         <v>@Test public void testConvert_239() throws Exception { verify( (char) 239, "ï"); }</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1">
+    <row r="192" spans="1:8">
       <c r="A192">
         <f t="shared" si="14"/>
         <v>240</v>
@@ -11580,7 +11612,7 @@
         <v>@Test public void testConvert_240() throws Exception { verify( (char) 240, "ð"); }</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193">
         <f t="shared" si="14"/>
         <v>241</v>
@@ -11606,7 +11638,7 @@
         <v>@Test public void testConvert_241() throws Exception { verify( (char) 241, "ñ"); }</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194">
         <f t="shared" si="14"/>
         <v>242</v>
@@ -11632,7 +11664,7 @@
         <v>@Test public void testConvert_242() throws Exception { verify( (char) 242, "ò"); }</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195">
         <f t="shared" si="14"/>
         <v>243</v>
@@ -11658,7 +11690,7 @@
         <v>@Test public void testConvert_243() throws Exception { verify( (char) 243, "ó"); }</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196">
         <f t="shared" si="14"/>
         <v>244</v>
@@ -11684,7 +11716,7 @@
         <v>@Test public void testConvert_244() throws Exception { verify( (char) 244, "ô"); }</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197">
         <f t="shared" si="14"/>
         <v>245</v>
@@ -11710,7 +11742,7 @@
         <v>@Test public void testConvert_245() throws Exception { verify( (char) 245, "õ"); }</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198">
         <f t="shared" si="14"/>
         <v>246</v>
@@ -11736,7 +11768,7 @@
         <v>@Test public void testConvert_246() throws Exception { verify( (char) 246, "ö"); }</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199">
         <f t="shared" si="14"/>
         <v>247</v>
@@ -11762,7 +11794,7 @@
         <v>@Test public void testConvert_247() throws Exception { verify( (char) 247, "÷"); }</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200">
         <f t="shared" si="14"/>
         <v>248</v>
@@ -11788,7 +11820,7 @@
         <v>@Test public void testConvert_248() throws Exception { verify( (char) 248, "ø"); }</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201">
         <f t="shared" si="14"/>
         <v>249</v>
@@ -11814,7 +11846,7 @@
         <v>@Test public void testConvert_249() throws Exception { verify( (char) 249, "ù"); }</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202">
         <f t="shared" si="14"/>
         <v>250</v>
@@ -11840,7 +11872,7 @@
         <v>@Test public void testConvert_250() throws Exception { verify( (char) 250, "ú"); }</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203">
         <f t="shared" si="14"/>
         <v>251</v>
@@ -11866,7 +11898,7 @@
         <v>@Test public void testConvert_251() throws Exception { verify( (char) 251, "û"); }</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204">
         <f t="shared" si="14"/>
         <v>252</v>
@@ -11892,7 +11924,7 @@
         <v>@Test public void testConvert_252() throws Exception { verify( (char) 252, "ü"); }</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205">
         <f t="shared" si="14"/>
         <v>253</v>
@@ -11918,7 +11950,7 @@
         <v>@Test public void testConvert_253() throws Exception { verify( (char) 253, "ý"); }</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206">
         <f t="shared" si="14"/>
         <v>254</v>
@@ -11944,7 +11976,7 @@
         <v>@Test public void testConvert_254() throws Exception { verify( (char) 254, "þ"); }</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207">
         <f t="shared" si="14"/>
         <v>255</v>
@@ -11970,13 +12002,34 @@
         <v>@Test public void testConvert_255() throws Exception { verify( (char) 255, "ÿ"); }</v>
       </c>
     </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="26" t="s">
+        <v>854</v>
+      </c>
+      <c r="B211" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="B212" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="B213" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:E207">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
-    <filterColumn colId="3">
-      <colorFilter dxfId="1" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conversion.xlsx
+++ b/conversion.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$E$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$E$209</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="898">
   <si>
     <t>' r underbar</t>
   </si>
@@ -569,9 +569,6 @@
     <t>character</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>&lt;control&gt;</t>
   </si>
   <si>
@@ -2598,6 +2595,129 @@
   </si>
   <si>
     <t>already present and uses special logic for conversion because of placement</t>
+  </si>
+  <si>
+    <t>U+0020</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>UTF NAME</t>
+  </si>
+  <si>
+    <t>SANSKRIT99 NAME/ ITRANS CODE</t>
+  </si>
+  <si>
+    <t>hra</t>
+  </si>
+  <si>
+    <t>hva</t>
+  </si>
+  <si>
+    <t>hya</t>
+  </si>
+  <si>
+    <t>hma</t>
+  </si>
+  <si>
+    <t>hna</t>
+  </si>
+  <si>
+    <t>kSh (i.e. kSha + virAma)</t>
+  </si>
+  <si>
+    <t>hR^i</t>
+  </si>
+  <si>
+    <t>hU</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sna</t>
+  </si>
+  <si>
+    <t>stra</t>
+  </si>
+  <si>
+    <t>ShTha</t>
+  </si>
+  <si>
+    <t>ShTa</t>
+  </si>
+  <si>
+    <t>zva</t>
+  </si>
+  <si>
+    <t>zla</t>
+  </si>
+  <si>
+    <t>zri</t>
+  </si>
+  <si>
+    <t>centered period (aka middle dot). same in both. note: will be escaped to HTML4 escape sequence &amp;middot; by conversion</t>
+  </si>
+  <si>
+    <t>soft hyphen. same in both. will be escaped to HTML4 escape sequence &amp;shy; by conversion</t>
+  </si>
+  <si>
+    <t>vocalic R^I normal position (e.g. with k)</t>
+  </si>
+  <si>
+    <t>vocalic R^I offset right position (e.g. used with t)</t>
+  </si>
+  <si>
+    <t>note: this is NOT an inverted candrabindu; it is instead a special ligature for R and anusvara. Because of the way sanskrit99 renders, this "character" must be placed at the end of the consonant character (unlike Unicode fonts which can dynamically create the ligature) and thus requires special pre-conversion mapping (from Sanskrit99 to Sanskrit99)</t>
+  </si>
+  <si>
+    <t>vna</t>
+  </si>
+  <si>
+    <t>bhna</t>
+  </si>
+  <si>
+    <t>bna</t>
+  </si>
+  <si>
+    <t>bja</t>
+  </si>
+  <si>
+    <t>pt (i.e. pa + virAma + ta + virAma)</t>
+  </si>
+  <si>
+    <t>nn (i.e. na + viRama + na + virAma)</t>
+  </si>
+  <si>
+    <t>dhna</t>
+  </si>
+  <si>
+    <t>dma</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>dgra</t>
+  </si>
+  <si>
+    <t>kna</t>
+  </si>
+  <si>
+    <t>nkra</t>
+  </si>
+  <si>
+    <t>vocalic R^I offset down (used e.g. with ~NkR^I)</t>
+  </si>
+  <si>
+    <t>short combining i</t>
+  </si>
+  <si>
+    <t>this is the combining R. the logic will not replace by itself, but only when next to letters b/c order needs to be swapped</t>
   </si>
 </sst>
 </file>
@@ -2733,8 +2853,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1153">
+  <cellStyleXfs count="1155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3926,7 +4048,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1153">
+  <cellStyles count="1155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4503,6 +4625,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5079,6 +5202,7 @@
     <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -6772,10 +6896,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6784,5250 +6908,5395 @@
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>849</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="14" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <f>HEX2DEC(MID(B2,3,4))</f>
+        <v>32</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <f>HEX2DEC(MID(B4,3,4))</f>
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G4" s="20" t="str">
+        <f>CONCATENATE("\x",TRIM(D4))</f>
+        <v>\x32</v>
+      </c>
+      <c r="I4" s="14" t="str">
+        <f t="shared" ref="I4:I66" si="0">CONCATENATE("@Test public void testConvert_",A4,"() throws Exception { verify( (char) ",A4, ", """,C4,"""); }")</f>
+        <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <f t="shared" ref="A5:A68" si="1">HEX2DEC(MID(B5,3,4))</f>
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="20" t="str">
-        <f>CONCATENATE("\x",TRIM(D2))</f>
-        <v>\x32</v>
-      </c>
-      <c r="H2" s="14" t="str">
-        <f t="shared" ref="H2:H64" si="0">CONCATENATE("@Test public void testConvert_",A2,"() throws Exception { verify( (char) ",A2, ", """,C2,"""); }")</f>
-        <v>@Test public void testConvert_50() throws Exception { verify( (char) 50, "2"); }</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <f t="shared" ref="A3:A66" si="1">HEX2DEC(MID(B3,3,4))</f>
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="20" t="str">
-        <f t="shared" ref="F3:F66" si="2">CONCATENATE("\x",TRIM(D3))</f>
+      <c r="G5" s="20" t="str">
+        <f t="shared" ref="G5:G68" si="2">CONCATENATE("\x",TRIM(D5))</f>
         <v>\x33</v>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="I5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_51() throws Exception { verify( (char) 51, "3"); }</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="6" spans="1:9">
+      <c r="A6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="20" t="str">
+      <c r="G6" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x34</v>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_52() throws Exception { verify( (char) 52, "4"); }</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="7" spans="1:9">
+      <c r="A7">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="3">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="20" t="str">
+      <c r="G7" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x35</v>
       </c>
-      <c r="H5" s="14" t="str">
+      <c r="I7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_53() throws Exception { verify( (char) 53, "5"); }</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="8" spans="1:9">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="3">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="20" t="str">
+      <c r="G8" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x36</v>
       </c>
-      <c r="H6" s="14" t="str">
+      <c r="I8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_54() throws Exception { verify( (char) 54, "6"); }</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="9" spans="1:9">
+      <c r="A9">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="20" t="str">
+      <c r="G9" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x37</v>
       </c>
-      <c r="H7" s="14" t="str">
+      <c r="I9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_55() throws Exception { verify( (char) 55, "7"); }</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+    <row r="10" spans="1:9">
+      <c r="A10">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="3">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="20" t="str">
+      <c r="G10" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x38</v>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="I10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_56() throws Exception { verify( (char) 56, "8"); }</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+    <row r="11" spans="1:9">
+      <c r="A11">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="3">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="20" t="str">
+      <c r="G11" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x39</v>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="I11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_57() throws Exception { verify( (char) 57, "9"); }</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+    <row r="12" spans="1:9">
+      <c r="A12">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D12" t="s">
         <v>201</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E12" t="s">
         <v>202</v>
       </c>
-      <c r="E10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="20" t="str">
+      <c r="G12" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3a</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="I12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_58() throws Exception { verify( (char) 58, ":"); }</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+    <row r="13" spans="1:9">
+      <c r="A13">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D13" t="s">
         <v>205</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>206</v>
       </c>
-      <c r="E11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="20" t="str">
+      <c r="G13" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3b</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="I13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_59() throws Exception { verify( (char) 59, ";"); }</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="14" spans="1:9">
+      <c r="A14">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D14" t="s">
         <v>209</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E14" t="s">
         <v>210</v>
       </c>
-      <c r="E12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" s="20" t="str">
+      <c r="G14" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3c</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="I14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_60() throws Exception { verify( (char) 60, "&lt;"); }</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+    <row r="15" spans="1:9">
+      <c r="A15">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D15" t="s">
         <v>213</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15" t="s">
         <v>214</v>
       </c>
-      <c r="E13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F13" s="20" t="str">
+      <c r="G15" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3d</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="I15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_61() throws Exception { verify( (char) 61, "="); }</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+    <row r="16" spans="1:9">
+      <c r="A16">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" t="s">
         <v>217</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>218</v>
       </c>
-      <c r="E14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="20" t="str">
+      <c r="G16" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3e</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="I16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_62() throws Exception { verify( (char) 62, "&gt;"); }</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D17" t="s">
         <v>221</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E17" t="s">
         <v>222</v>
       </c>
-      <c r="E15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="20" t="str">
+      <c r="G17" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x3f</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="I17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_63() throws Exception { verify( (char) 63, "?"); }</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
         <v>225</v>
       </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="20" t="str">
+      <c r="G18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x40</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="I18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_64() throws Exception { verify( (char) 64, "@"); }</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
         <v>228</v>
       </c>
-      <c r="D17">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="20" t="str">
+      <c r="G19" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x41</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="I19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_65() throws Exception { verify( (char) 65, "A"); }</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
         <v>231</v>
       </c>
-      <c r="D18">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="20" t="str">
+      <c r="G20" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x42</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="I20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_66() throws Exception { verify( (char) 66, "B"); }</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>234</v>
       </c>
-      <c r="D19">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="20" t="str">
+      <c r="G21" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x43</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="I21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_67() throws Exception { verify( (char) 67, "C"); }</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
         <v>237</v>
       </c>
-      <c r="D20">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="20" t="str">
+      <c r="G22" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x44</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="I22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_68() throws Exception { verify( (char) 68, "D"); }</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
+    <row r="23" spans="1:9">
+      <c r="A23">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>240</v>
       </c>
-      <c r="D21">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="20" t="str">
+      <c r="G23" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x45</v>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="I23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_69() throws Exception { verify( (char) 69, "E"); }</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+    <row r="24" spans="1:9">
+      <c r="A24">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>243</v>
       </c>
-      <c r="D22">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F22" s="20" t="str">
+      <c r="G24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x46</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="I24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_70() throws Exception { verify( (char) 70, "F"); }</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+    <row r="25" spans="1:9">
+      <c r="A25">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>246</v>
       </c>
-      <c r="D23">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="20" t="str">
+      <c r="G25" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x47</v>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="I25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_71() throws Exception { verify( (char) 71, "G"); }</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
+    <row r="26" spans="1:9">
+      <c r="A26">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
         <v>249</v>
       </c>
-      <c r="D24">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F24" s="20" t="str">
+      <c r="G26" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x48</v>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="I26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_72() throws Exception { verify( (char) 72, "H"); }</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
+    <row r="27" spans="1:9">
+      <c r="A27">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D27">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>252</v>
       </c>
-      <c r="D25">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F25" s="20" t="str">
+      <c r="G27" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x49</v>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="I27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_73() throws Exception { verify( (char) 73, "I"); }</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+    <row r="28" spans="1:9">
+      <c r="A28">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="D28" t="s">
         <v>255</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E28" t="s">
         <v>256</v>
       </c>
-      <c r="E26" t="s">
-        <v>257</v>
-      </c>
-      <c r="F26" s="20" t="str">
+      <c r="G28" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4a</v>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="I28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_74() throws Exception { verify( (char) 74, "J"); }</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D29" t="s">
         <v>259</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E29" t="s">
         <v>260</v>
       </c>
-      <c r="E27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" s="20" t="str">
+      <c r="G29" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4b</v>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="I29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_75() throws Exception { verify( (char) 75, "K"); }</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
+    <row r="30" spans="1:9">
+      <c r="A30">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D30" t="s">
         <v>263</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E30" t="s">
         <v>264</v>
       </c>
-      <c r="E28" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="20" t="str">
+      <c r="G30" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4c</v>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="I30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_76() throws Exception { verify( (char) 76, "L"); }</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
+    <row r="31" spans="1:9">
+      <c r="A31">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D31" t="s">
         <v>267</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
         <v>268</v>
       </c>
-      <c r="E29" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="20" t="str">
+      <c r="G31" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4d</v>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="I31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_77() throws Exception { verify( (char) 77, "M"); }</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
+    <row r="32" spans="1:9">
+      <c r="A32">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D32" t="s">
         <v>271</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E32" t="s">
         <v>272</v>
       </c>
-      <c r="E30" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="20" t="str">
+      <c r="G32" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4e</v>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="I32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_78() throws Exception { verify( (char) 78, "N"); }</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="D33" t="s">
         <v>275</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E33" t="s">
         <v>276</v>
       </c>
-      <c r="E31" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="20" t="str">
+      <c r="G33" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x4f</v>
       </c>
-      <c r="H31" s="14" t="str">
+      <c r="I33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_79() throws Exception { verify( (char) 79, "O"); }</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
+    <row r="34" spans="1:9">
+      <c r="A34">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>279</v>
       </c>
-      <c r="D32">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" s="20" t="str">
+      <c r="G34" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x50</v>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="I34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_80() throws Exception { verify( (char) 80, "P"); }</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
+    <row r="35" spans="1:9">
+      <c r="A35">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
         <v>282</v>
       </c>
-      <c r="D33">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>283</v>
-      </c>
-      <c r="F33" s="20" t="str">
+      <c r="G35" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x51</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="I35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_81() throws Exception { verify( (char) 81, "Q"); }</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="D36">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
         <v>285</v>
       </c>
-      <c r="D34">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>286</v>
-      </c>
-      <c r="F34" s="20" t="str">
+      <c r="F36" t="s">
+        <v>897</v>
+      </c>
+      <c r="G36" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x52</v>
       </c>
-      <c r="H34" s="25" t="str">
+      <c r="I36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_82() throws Exception { verify( (char) 82, "R"); }</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
         <v>288</v>
       </c>
-      <c r="D35">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" s="20" t="str">
+      <c r="G37" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x53</v>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="I37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_83() throws Exception { verify( (char) 83, "S"); }</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
+    <row r="38" spans="1:9">
+      <c r="A38">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
         <v>291</v>
       </c>
-      <c r="D36">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="20" t="str">
+      <c r="G38" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x54</v>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="I38" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_84() throws Exception { verify( (char) 84, "T"); }</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
+    <row r="39" spans="1:9">
+      <c r="A39">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D39">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
         <v>294</v>
       </c>
-      <c r="D37">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>295</v>
-      </c>
-      <c r="F37" s="20" t="str">
+      <c r="G39" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x55</v>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="I39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_85() throws Exception { verify( (char) 85, "U"); }</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D40">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
         <v>297</v>
       </c>
-      <c r="D38">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
-        <v>298</v>
-      </c>
-      <c r="F38" s="20" t="str">
+      <c r="G40" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x56</v>
       </c>
-      <c r="H38" s="14" t="str">
+      <c r="I40" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_86() throws Exception { verify( (char) 86, "V"); }</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D41">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
         <v>300</v>
       </c>
-      <c r="D39">
-        <v>57</v>
-      </c>
-      <c r="E39" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="20" t="str">
+      <c r="G41" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x57</v>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="I41" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_87() throws Exception { verify( (char) 87, "W"); }</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D42">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
         <v>303</v>
       </c>
-      <c r="D40">
-        <v>58</v>
-      </c>
-      <c r="E40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F40" s="20" t="str">
+      <c r="G42" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x58</v>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="I42" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_88() throws Exception { verify( (char) 88, "X"); }</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D43">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="D41">
-        <v>59</v>
-      </c>
-      <c r="E41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" s="20" t="str">
+      <c r="G43" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x59</v>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="I43" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_89() throws Exception { verify( (char) 89, "Y"); }</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D44" t="s">
         <v>309</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E44" t="s">
         <v>310</v>
       </c>
-      <c r="E42" t="s">
-        <v>311</v>
-      </c>
-      <c r="F42" s="20" t="str">
+      <c r="G44" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5a</v>
       </c>
-      <c r="H42" s="14" t="str">
+      <c r="I44" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_90() throws Exception { verify( (char) 90, "Z"); }</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D45" t="s">
         <v>313</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E45" t="s">
         <v>314</v>
       </c>
-      <c r="E43" t="s">
-        <v>315</v>
-      </c>
-      <c r="F43" s="20" t="str">
+      <c r="G45" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5b</v>
       </c>
-      <c r="H43" s="14" t="str">
+      <c r="I45" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_91() throws Exception { verify( (char) 91, "["); }</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D46" t="s">
         <v>317</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E46" t="s">
         <v>318</v>
       </c>
-      <c r="E44" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" s="20" t="str">
+      <c r="G46" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5c</v>
       </c>
-      <c r="H44" s="14" t="str">
+      <c r="I46" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_92() throws Exception { verify( (char) 92, "\"); }</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
+    <row r="47" spans="1:9">
+      <c r="A47">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D47" t="s">
         <v>321</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E47" t="s">
         <v>322</v>
       </c>
-      <c r="E45" t="s">
-        <v>323</v>
-      </c>
-      <c r="F45" s="20" t="str">
+      <c r="G47" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5d</v>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="I47" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_93() throws Exception { verify( (char) 93, "]"); }</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+    <row r="48" spans="1:9">
+      <c r="A48">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D48" t="s">
         <v>325</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E48" t="s">
         <v>326</v>
       </c>
-      <c r="E46" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" s="20" t="str">
+      <c r="G48" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5e</v>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="I48" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_94() throws Exception { verify( (char) 94, "^"); }</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
+    <row r="49" spans="1:9">
+      <c r="A49">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D49" t="s">
         <v>329</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E49" t="s">
         <v>330</v>
       </c>
-      <c r="E47" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="20" t="str">
+      <c r="G49" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x5f</v>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="I49" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_95() throws Exception { verify( (char) 95, "_"); }</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
+    <row r="50" spans="1:9">
+      <c r="A50">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D50">
+        <v>60</v>
+      </c>
+      <c r="E50" t="s">
         <v>333</v>
       </c>
-      <c r="D48">
-        <v>60</v>
-      </c>
-      <c r="E48" t="s">
-        <v>334</v>
-      </c>
-      <c r="F48" s="20" t="str">
+      <c r="G50" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x60</v>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="I50" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_96() throws Exception { verify( (char) 96, "`"); }</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
+    <row r="51" spans="1:9">
+      <c r="A51">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="D51">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
         <v>336</v>
       </c>
-      <c r="D49">
-        <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>337</v>
-      </c>
-      <c r="F49" s="20" t="str">
+      <c r="G51" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x61</v>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="I51" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_97() throws Exception { verify( (char) 97, "a"); }</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
+    <row r="52" spans="1:9">
+      <c r="A52">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D52">
+        <v>62</v>
+      </c>
+      <c r="E52" t="s">
         <v>339</v>
       </c>
-      <c r="D50">
-        <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="20" t="str">
+      <c r="G52" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x62</v>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="I52" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_98() throws Exception { verify( (char) 98, "b"); }</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
+    <row r="53" spans="1:9">
+      <c r="A53">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D53">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
         <v>342</v>
       </c>
-      <c r="D51">
-        <v>63</v>
-      </c>
-      <c r="E51" t="s">
-        <v>343</v>
-      </c>
-      <c r="F51" s="20" t="str">
+      <c r="G53" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x63</v>
       </c>
-      <c r="H51" s="14" t="str">
+      <c r="I53" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_99() throws Exception { verify( (char) 99, "c"); }</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
+    <row r="54" spans="1:9">
+      <c r="A54">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D54">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
         <v>345</v>
       </c>
-      <c r="D52">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>346</v>
-      </c>
-      <c r="F52" s="20" t="str">
+      <c r="G54" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x64</v>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="I54" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_100() throws Exception { verify( (char) 100, "d"); }</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
+    <row r="55" spans="1:9">
+      <c r="A55">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
         <v>348</v>
       </c>
-      <c r="D53">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>349</v>
-      </c>
-      <c r="F53" s="20" t="str">
+      <c r="G55" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x65</v>
       </c>
-      <c r="H53" s="14" t="str">
+      <c r="I55" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_101() throws Exception { verify( (char) 101, "e"); }</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
+    <row r="56" spans="1:9">
+      <c r="A56">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D56">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
         <v>351</v>
       </c>
-      <c r="D54">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>352</v>
-      </c>
-      <c r="F54" s="20" t="str">
+      <c r="G56" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x66</v>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="I56" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_102() throws Exception { verify( (char) 102, "f"); }</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
+    <row r="57" spans="1:9">
+      <c r="A57">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="D57">
+        <v>67</v>
+      </c>
+      <c r="E57" t="s">
         <v>354</v>
       </c>
-      <c r="D55">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>355</v>
-      </c>
-      <c r="F55" s="20" t="str">
+      <c r="G57" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x67</v>
       </c>
-      <c r="H55" s="14" t="str">
+      <c r="I57" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_103() throws Exception { verify( (char) 103, "g"); }</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
+    <row r="58" spans="1:9">
+      <c r="A58">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D58">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="D56">
-        <v>68</v>
-      </c>
-      <c r="E56" t="s">
-        <v>358</v>
-      </c>
-      <c r="F56" s="20" t="str">
+      <c r="G58" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x68</v>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="I58" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_104() throws Exception { verify( (char) 104, "h"); }</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
+    <row r="59" spans="1:9">
+      <c r="A59">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="D59">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="D57">
-        <v>69</v>
-      </c>
-      <c r="E57" t="s">
-        <v>361</v>
-      </c>
-      <c r="F57" s="20" t="str">
+      <c r="F59" t="s">
+        <v>896</v>
+      </c>
+      <c r="G59" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x69</v>
       </c>
-      <c r="H57" s="25" t="str">
+      <c r="I59" s="25" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_105() throws Exception { verify( (char) 105, "i"); }</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
+    <row r="60" spans="1:9">
+      <c r="A60">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="D60" t="s">
         <v>363</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E60" t="s">
         <v>364</v>
       </c>
-      <c r="E58" t="s">
-        <v>365</v>
-      </c>
-      <c r="F58" s="20" t="str">
+      <c r="G60" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6a</v>
       </c>
-      <c r="H58" s="14" t="str">
+      <c r="I60" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_106() throws Exception { verify( (char) 106, "j"); }</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
+    <row r="61" spans="1:9">
+      <c r="A61">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="D61" t="s">
         <v>367</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E61" t="s">
         <v>368</v>
       </c>
-      <c r="E59" t="s">
-        <v>369</v>
-      </c>
-      <c r="F59" s="20" t="str">
+      <c r="G61" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6b</v>
       </c>
-      <c r="H59" s="14" t="str">
+      <c r="I61" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_107() throws Exception { verify( (char) 107, "k"); }</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
+    <row r="62" spans="1:9">
+      <c r="A62">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D62" t="s">
         <v>371</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="E60" t="s">
-        <v>373</v>
-      </c>
-      <c r="F60" s="20" t="str">
+      <c r="G62" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6c</v>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="I62" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_108() throws Exception { verify( (char) 108, "l"); }</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
+    <row r="63" spans="1:9">
+      <c r="A63">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="D63" t="s">
         <v>375</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E63" t="s">
         <v>376</v>
       </c>
-      <c r="E61" t="s">
-        <v>377</v>
-      </c>
-      <c r="F61" s="20" t="str">
+      <c r="G63" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6d</v>
       </c>
-      <c r="H61" s="14" t="str">
+      <c r="I63" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_109() throws Exception { verify( (char) 109, "m"); }</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
+    <row r="64" spans="1:9">
+      <c r="A64">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D64" t="s">
         <v>379</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E64" t="s">
         <v>380</v>
       </c>
-      <c r="E62" t="s">
-        <v>381</v>
-      </c>
-      <c r="F62" s="20" t="str">
+      <c r="G64" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6e</v>
       </c>
-      <c r="H62" s="14" t="str">
+      <c r="I64" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_110() throws Exception { verify( (char) 110, "n"); }</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
+    <row r="65" spans="1:9">
+      <c r="A65">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
+        <v>381</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="D65" t="s">
         <v>383</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E65" t="s">
         <v>384</v>
       </c>
-      <c r="E63" t="s">
-        <v>385</v>
-      </c>
-      <c r="F63" s="20" t="str">
+      <c r="G65" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x6f</v>
       </c>
-      <c r="H63" s="14" t="str">
+      <c r="I65" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_111() throws Exception { verify( (char) 111, "o"); }</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
+    <row r="66" spans="1:9">
+      <c r="A66">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D66">
+        <v>70</v>
+      </c>
+      <c r="E66" t="s">
         <v>387</v>
       </c>
-      <c r="D64">
-        <v>70</v>
-      </c>
-      <c r="E64" t="s">
-        <v>388</v>
-      </c>
-      <c r="F64" s="20" t="str">
+      <c r="G66" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x70</v>
       </c>
-      <c r="H64" s="14" t="str">
+      <c r="I66" s="14" t="str">
         <f t="shared" si="0"/>
         <v>@Test public void testConvert_112() throws Exception { verify( (char) 112, "p"); }</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
+    <row r="67" spans="1:9">
+      <c r="A67">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="D67">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
         <v>390</v>
       </c>
-      <c r="D65">
-        <v>71</v>
-      </c>
-      <c r="E65" t="s">
-        <v>391</v>
-      </c>
-      <c r="F65" s="20" t="str">
+      <c r="G67" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x71</v>
       </c>
-      <c r="H65" s="14" t="str">
-        <f t="shared" ref="H65:H78" si="3">CONCATENATE("@Test public void testConvert_",A65,"() throws Exception { verify( (char) ",A65, ", """,C65,"""); }")</f>
+      <c r="I67" s="14" t="str">
+        <f t="shared" ref="I67:I80" si="3">CONCATENATE("@Test public void testConvert_",A67,"() throws Exception { verify( (char) ",A67, ", """,C67,"""); }")</f>
         <v>@Test public void testConvert_113() throws Exception { verify( (char) 113, "q"); }</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
+    <row r="68" spans="1:9">
+      <c r="A68">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D68">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
         <v>393</v>
       </c>
-      <c r="D66">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
-        <v>394</v>
-      </c>
-      <c r="F66" s="20" t="str">
+      <c r="G68" s="20" t="str">
         <f t="shared" si="2"/>
         <v>\x72</v>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="I68" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_114() throws Exception { verify( (char) 114, "r"); }</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <f t="shared" ref="A67:A78" si="4">HEX2DEC(MID(B67,3,4))</f>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <f t="shared" ref="A69:A80" si="4">HEX2DEC(MID(B69,3,4))</f>
         <v>115</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D69">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
         <v>396</v>
       </c>
-      <c r="D67">
-        <v>73</v>
-      </c>
-      <c r="E67" t="s">
-        <v>397</v>
-      </c>
-      <c r="F67" s="20" t="str">
-        <f t="shared" ref="F67:F78" si="5">CONCATENATE("\x",TRIM(D67))</f>
+      <c r="G69" s="20" t="str">
+        <f t="shared" ref="G69:G80" si="5">CONCATENATE("\x",TRIM(D69))</f>
         <v>\x73</v>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="I69" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_115() throws Exception { verify( (char) 115, "s"); }</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
+    <row r="70" spans="1:9">
+      <c r="A70">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D70">
+        <v>74</v>
+      </c>
+      <c r="E70" t="s">
         <v>399</v>
       </c>
-      <c r="D68">
-        <v>74</v>
-      </c>
-      <c r="E68" t="s">
-        <v>400</v>
-      </c>
-      <c r="F68" s="20" t="str">
+      <c r="G70" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x74</v>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="I70" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_116() throws Exception { verify( (char) 116, "t"); }</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
+    <row r="71" spans="1:9">
+      <c r="A71">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
+        <v>400</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D71">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
         <v>402</v>
       </c>
-      <c r="D69">
-        <v>75</v>
-      </c>
-      <c r="E69" t="s">
-        <v>403</v>
-      </c>
-      <c r="F69" s="20" t="str">
+      <c r="G71" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x75</v>
       </c>
-      <c r="H69" s="14" t="str">
+      <c r="I71" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_117() throws Exception { verify( (char) 117, "u"); }</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
+    <row r="72" spans="1:9">
+      <c r="A72">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D72">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
         <v>405</v>
       </c>
-      <c r="D70">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>406</v>
-      </c>
-      <c r="F70" s="20" t="str">
+      <c r="G72" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x76</v>
       </c>
-      <c r="H70" s="14" t="str">
+      <c r="I72" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_118() throws Exception { verify( (char) 118, "v"); }</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
+    <row r="73" spans="1:9">
+      <c r="A73">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
+        <v>406</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D73">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
         <v>408</v>
       </c>
-      <c r="D71">
-        <v>77</v>
-      </c>
-      <c r="E71" t="s">
-        <v>409</v>
-      </c>
-      <c r="F71" s="20" t="str">
+      <c r="G73" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x77</v>
       </c>
-      <c r="H71" s="14" t="str">
+      <c r="I73" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_119() throws Exception { verify( (char) 119, "w"); }</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
+    <row r="74" spans="1:9">
+      <c r="A74">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D74">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s">
         <v>411</v>
       </c>
-      <c r="D72">
-        <v>78</v>
-      </c>
-      <c r="E72" t="s">
-        <v>412</v>
-      </c>
-      <c r="F72" s="20" t="str">
+      <c r="G74" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x78</v>
       </c>
-      <c r="H72" s="14" t="str">
+      <c r="I74" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_120() throws Exception { verify( (char) 120, "x"); }</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
+    <row r="75" spans="1:9">
+      <c r="A75">
         <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="D75">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
         <v>414</v>
       </c>
-      <c r="D73">
-        <v>79</v>
-      </c>
-      <c r="E73" t="s">
-        <v>415</v>
-      </c>
-      <c r="F73" s="20" t="str">
+      <c r="G75" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x79</v>
       </c>
-      <c r="H73" s="14" t="str">
+      <c r="I75" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_121() throws Exception { verify( (char) 121, "y"); }</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
+    <row r="76" spans="1:9">
+      <c r="A76">
         <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
+        <v>415</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D76" t="s">
         <v>417</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E76" t="s">
         <v>418</v>
       </c>
-      <c r="E74" t="s">
-        <v>419</v>
-      </c>
-      <c r="F74" s="20" t="str">
+      <c r="G76" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x7a</v>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="I76" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_122() throws Exception { verify( (char) 122, "z"); }</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
+    <row r="77" spans="1:9">
+      <c r="A77">
         <f t="shared" si="4"/>
         <v>123</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="D77" t="s">
         <v>421</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E77" t="s">
         <v>422</v>
       </c>
-      <c r="E75" t="s">
-        <v>423</v>
-      </c>
-      <c r="F75" s="20" t="str">
+      <c r="G77" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x7b</v>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="I77" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_123() throws Exception { verify( (char) 123, "{"); }</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
+    <row r="78" spans="1:9">
+      <c r="A78">
         <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
+        <v>423</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D78" t="s">
         <v>425</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E78" t="s">
         <v>426</v>
       </c>
-      <c r="E76" t="s">
-        <v>427</v>
-      </c>
-      <c r="F76" s="20" t="str">
+      <c r="G78" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x7c</v>
       </c>
-      <c r="H76" s="14" t="str">
+      <c r="I78" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_124() throws Exception { verify( (char) 124, "|"); }</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77">
+    <row r="79" spans="1:9">
+      <c r="A79">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D79" t="s">
         <v>429</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E79" t="s">
         <v>430</v>
       </c>
-      <c r="E77" t="s">
-        <v>431</v>
-      </c>
-      <c r="F77" s="20" t="str">
+      <c r="G79" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x7d</v>
       </c>
-      <c r="H77" s="14" t="str">
+      <c r="I79" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_125() throws Exception { verify( (char) 125, "}"); }</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78">
+    <row r="80" spans="1:9">
+      <c r="A80">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
+        <v>431</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D80" t="s">
         <v>433</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E80" t="s">
         <v>434</v>
       </c>
-      <c r="E78" t="s">
-        <v>435</v>
-      </c>
-      <c r="F78" s="20" t="str">
+      <c r="G80" s="20" t="str">
         <f t="shared" si="5"/>
         <v>\x7e</v>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="I80" s="14" t="str">
         <f t="shared" si="3"/>
         <v>@Test public void testConvert_126() throws Exception { verify( (char) 126, "~"); }</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B79" s="18" t="s">
+    <row r="81" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B81" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="E81" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" t="str">
+        <f>CONCATENATE("\x",TRIM(D81))</f>
+        <v>\x7f</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B82" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F79" t="str">
-        <f>CONCATENATE("\x",TRIM(D79))</f>
-        <v>\x7f</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B80" s="18" t="s">
+      <c r="D82" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="E82" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="18" t="str">
+        <f>CONCATENATE("\x",LEFT(D82,2),"\x",MID(D82,4,2))</f>
+        <v>\xc2\x80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B83" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" s="18" t="str">
-        <f>CONCATENATE("\x",LEFT(D80,2),"\x",MID(D80,4,2))</f>
-        <v>\xc2\x80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B81" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="E83" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G83" s="18" t="str">
+        <f t="shared" ref="G83:G146" si="6">CONCATENATE("\x",LEFT(D83,2),"\x",MID(D83,4,2))</f>
+        <v>\xc2\x81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <f t="shared" ref="A84:A94" si="7">HEX2DEC(MID(B84,3,4))</f>
+        <v>130</v>
+      </c>
+      <c r="B84" t="s">
         <v>441</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F81" s="18" t="str">
-        <f t="shared" ref="F81:F144" si="6">CONCATENATE("\x",LEFT(D81,2),"\x",MID(D81,4,2))</f>
-        <v>\xc2\x81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
-        <f t="shared" ref="A82:A92" si="7">HEX2DEC(MID(B82,3,4))</f>
-        <v>130</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D84" t="s">
         <v>442</v>
       </c>
-      <c r="D82" t="s">
-        <v>443</v>
-      </c>
-      <c r="E82" t="s">
-        <v>182</v>
-      </c>
-      <c r="F82" s="20" t="str">
+      <c r="E84" t="s">
+        <v>181</v>
+      </c>
+      <c r="G84" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x82</v>
       </c>
-      <c r="H82" s="14" t="str">
-        <f t="shared" ref="H82:H92" si="8">CONCATENATE("@Test public void testConvert_",A82,"() throws Exception { verify( (char) ",A82, ", """,C82,"""); }")</f>
+      <c r="I84" s="14" t="str">
+        <f t="shared" ref="I84:I94" si="8">CONCATENATE("@Test public void testConvert_",A84,"() throws Exception { verify( (char) ",A84, ", """,C84,"""); }")</f>
         <v>@Test public void testConvert_130() throws Exception { verify( (char) 130, ""); }</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
+    <row r="85" spans="1:9">
+      <c r="A85">
         <f t="shared" si="7"/>
         <v>131</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" t="s">
         <v>444</v>
       </c>
-      <c r="D83" t="s">
-        <v>445</v>
-      </c>
-      <c r="E83" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="20" t="str">
+      <c r="E85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x83</v>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="I85" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_131() throws Exception { verify( (char) 131, ""); }</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
+    <row r="86" spans="1:9">
+      <c r="A86">
         <f t="shared" si="7"/>
         <v>132</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
+        <v>445</v>
+      </c>
+      <c r="D86" t="s">
         <v>446</v>
       </c>
-      <c r="D84" t="s">
-        <v>447</v>
-      </c>
-      <c r="E84" t="s">
-        <v>182</v>
-      </c>
-      <c r="F84" s="20" t="str">
+      <c r="E86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x84</v>
       </c>
-      <c r="H84" s="14" t="str">
+      <c r="I86" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_132() throws Exception { verify( (char) 132, ""); }</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
+    <row r="87" spans="1:9">
+      <c r="A87">
         <f t="shared" si="7"/>
         <v>133</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
+        <v>447</v>
+      </c>
+      <c r="D87" t="s">
         <v>448</v>
       </c>
-      <c r="D85" t="s">
-        <v>449</v>
-      </c>
-      <c r="E85" t="s">
-        <v>182</v>
-      </c>
-      <c r="F85" s="20" t="str">
+      <c r="E87" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x85</v>
       </c>
-      <c r="H85" s="14" t="str">
+      <c r="I87" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_133() throws Exception { verify( (char) 133, ""); }</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
+    <row r="88" spans="1:9">
+      <c r="A88">
         <f t="shared" si="7"/>
         <v>134</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
+        <v>449</v>
+      </c>
+      <c r="D88" t="s">
         <v>450</v>
       </c>
-      <c r="D86" t="s">
-        <v>451</v>
-      </c>
-      <c r="E86" t="s">
-        <v>182</v>
-      </c>
-      <c r="F86" s="20" t="str">
+      <c r="E88" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x86</v>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="I88" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_134() throws Exception { verify( (char) 134, ""); }</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
+    <row r="89" spans="1:9">
+      <c r="A89">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" t="s">
         <v>452</v>
       </c>
-      <c r="D87" t="s">
-        <v>453</v>
-      </c>
-      <c r="E87" t="s">
-        <v>182</v>
-      </c>
-      <c r="F87" s="20" t="str">
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x87</v>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="I89" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_135() throws Exception { verify( (char) 135, ""); }</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
+    <row r="90" spans="1:9">
+      <c r="A90">
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
+        <v>453</v>
+      </c>
+      <c r="D90" t="s">
         <v>454</v>
       </c>
-      <c r="D88" t="s">
-        <v>455</v>
-      </c>
-      <c r="E88" t="s">
-        <v>182</v>
-      </c>
-      <c r="F88" s="20" t="str">
+      <c r="E90" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x88</v>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="I90" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_136() throws Exception { verify( (char) 136, ""); }</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
+    <row r="91" spans="1:9">
+      <c r="A91">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" t="s">
         <v>456</v>
       </c>
-      <c r="D89" t="s">
-        <v>457</v>
-      </c>
-      <c r="E89" t="s">
-        <v>182</v>
-      </c>
-      <c r="F89" s="20" t="str">
+      <c r="E91" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x89</v>
       </c>
-      <c r="H89" s="14" t="str">
+      <c r="I91" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_137() throws Exception { verify( (char) 137, ""); }</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
+    <row r="92" spans="1:9">
+      <c r="A92">
         <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
+        <v>457</v>
+      </c>
+      <c r="D92" t="s">
         <v>458</v>
       </c>
-      <c r="D90" t="s">
-        <v>459</v>
-      </c>
-      <c r="E90" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="20" t="str">
+      <c r="E92" t="s">
+        <v>181</v>
+      </c>
+      <c r="G92" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8a</v>
       </c>
-      <c r="H90" s="14" t="str">
+      <c r="I92" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_138() throws Exception { verify( (char) 138, ""); }</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
+    <row r="93" spans="1:9">
+      <c r="A93">
         <f t="shared" si="7"/>
         <v>139</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
         <v>460</v>
       </c>
-      <c r="D91" t="s">
-        <v>461</v>
-      </c>
-      <c r="E91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F91" s="20" t="str">
+      <c r="E93" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8b</v>
       </c>
-      <c r="H91" s="14" t="str">
+      <c r="I93" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_139() throws Exception { verify( (char) 139, ""); }</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
+    <row r="94" spans="1:9">
+      <c r="A94">
         <f t="shared" si="7"/>
         <v>140</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
+        <v>461</v>
+      </c>
+      <c r="D94" t="s">
         <v>462</v>
       </c>
-      <c r="D92" t="s">
-        <v>463</v>
-      </c>
-      <c r="E92" t="s">
-        <v>182</v>
-      </c>
-      <c r="F92" s="20" t="str">
+      <c r="E94" t="s">
+        <v>181</v>
+      </c>
+      <c r="G94" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8c</v>
       </c>
-      <c r="H92" s="14" t="str">
+      <c r="I94" s="14" t="str">
         <f t="shared" si="8"/>
         <v>@Test public void testConvert_140() throws Exception { verify( (char) 140, ""); }</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B93" s="18" t="s">
+    <row r="95" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B95" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F93" s="18" t="str">
+      <c r="E95" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G95" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8d</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B94" s="18" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B96" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F94" s="18" t="str">
+      <c r="E96" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8e</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B95" s="18" t="s">
+    <row r="97" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B97" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F95" s="18" t="str">
+      <c r="E97" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x8f</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B96" s="18" t="s">
+    <row r="98" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B98" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F96" s="18" t="str">
+      <c r="E98" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G98" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x90</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
-        <f t="shared" ref="A97:A108" si="9">HEX2DEC(MID(B97,3,4))</f>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <f t="shared" ref="A99:A110" si="9">HEX2DEC(MID(B99,3,4))</f>
         <v>145</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
+        <v>471</v>
+      </c>
+      <c r="D99" t="s">
         <v>472</v>
       </c>
-      <c r="D97" t="s">
-        <v>473</v>
-      </c>
-      <c r="E97" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97" s="20" t="str">
+      <c r="E99" t="s">
+        <v>181</v>
+      </c>
+      <c r="G99" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x91</v>
       </c>
-      <c r="H97" s="14" t="str">
-        <f t="shared" ref="H97:H108" si="10">CONCATENATE("@Test public void testConvert_",A97,"() throws Exception { verify( (char) ",A97, ", """,C97,"""); }")</f>
+      <c r="I99" s="14" t="str">
+        <f t="shared" ref="I99:I110" si="10">CONCATENATE("@Test public void testConvert_",A99,"() throws Exception { verify( (char) ",A99, ", """,C99,"""); }")</f>
         <v>@Test public void testConvert_145() throws Exception { verify( (char) 145, ""); }</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98">
+    <row r="100" spans="1:9">
+      <c r="A100">
         <f t="shared" si="9"/>
         <v>146</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" t="s">
         <v>474</v>
       </c>
-      <c r="D98" t="s">
-        <v>475</v>
-      </c>
-      <c r="E98" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="20" t="str">
+      <c r="E100" t="s">
+        <v>181</v>
+      </c>
+      <c r="G100" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x92</v>
       </c>
-      <c r="H98" s="14" t="str">
+      <c r="I100" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_146() throws Exception { verify( (char) 146, ""); }</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99">
+    <row r="101" spans="1:9">
+      <c r="A101">
         <f t="shared" si="9"/>
         <v>147</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" t="s">
         <v>476</v>
       </c>
-      <c r="D99" t="s">
-        <v>477</v>
-      </c>
-      <c r="E99" t="s">
-        <v>182</v>
-      </c>
-      <c r="F99" s="20" t="str">
+      <c r="E101" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x93</v>
       </c>
-      <c r="H99" s="14" t="str">
+      <c r="I101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_147() throws Exception { verify( (char) 147, ""); }</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100">
+    <row r="102" spans="1:9">
+      <c r="A102">
         <f t="shared" si="9"/>
         <v>148</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
+        <v>477</v>
+      </c>
+      <c r="D102" t="s">
         <v>478</v>
       </c>
-      <c r="D100" t="s">
-        <v>479</v>
-      </c>
-      <c r="E100" t="s">
-        <v>182</v>
-      </c>
-      <c r="F100" s="20" t="str">
+      <c r="E102" t="s">
+        <v>181</v>
+      </c>
+      <c r="G102" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x94</v>
       </c>
-      <c r="H100" s="14" t="str">
+      <c r="I102" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_148() throws Exception { verify( (char) 148, ""); }</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101">
+    <row r="103" spans="1:9">
+      <c r="A103">
         <f t="shared" si="9"/>
         <v>149</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
+        <v>479</v>
+      </c>
+      <c r="D103" t="s">
         <v>480</v>
       </c>
-      <c r="D101" t="s">
-        <v>481</v>
-      </c>
-      <c r="E101" t="s">
-        <v>182</v>
-      </c>
-      <c r="F101" s="20" t="str">
+      <c r="E103" t="s">
+        <v>181</v>
+      </c>
+      <c r="G103" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x95</v>
       </c>
-      <c r="H101" s="14" t="str">
+      <c r="I103" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_149() throws Exception { verify( (char) 149, ""); }</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102">
+    <row r="104" spans="1:9">
+      <c r="A104">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
+        <v>481</v>
+      </c>
+      <c r="D104" t="s">
         <v>482</v>
       </c>
-      <c r="D102" t="s">
-        <v>483</v>
-      </c>
-      <c r="E102" t="s">
-        <v>182</v>
-      </c>
-      <c r="F102" s="20" t="str">
+      <c r="E104" t="s">
+        <v>181</v>
+      </c>
+      <c r="G104" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x96</v>
       </c>
-      <c r="H102" s="14" t="str">
+      <c r="I104" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_150() throws Exception { verify( (char) 150, ""); }</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103">
+    <row r="105" spans="1:9">
+      <c r="A105">
         <f t="shared" si="9"/>
         <v>151</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
+        <v>483</v>
+      </c>
+      <c r="D105" t="s">
         <v>484</v>
       </c>
-      <c r="D103" t="s">
-        <v>485</v>
-      </c>
-      <c r="E103" t="s">
-        <v>182</v>
-      </c>
-      <c r="F103" s="20" t="str">
+      <c r="E105" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x97</v>
       </c>
-      <c r="H103" s="14" t="str">
+      <c r="I105" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_151() throws Exception { verify( (char) 151, ""); }</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104">
+    <row r="106" spans="1:9">
+      <c r="A106">
         <f t="shared" si="9"/>
         <v>152</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
+        <v>485</v>
+      </c>
+      <c r="D106" t="s">
         <v>486</v>
       </c>
-      <c r="D104" t="s">
-        <v>487</v>
-      </c>
-      <c r="E104" t="s">
-        <v>182</v>
-      </c>
-      <c r="F104" s="20" t="str">
+      <c r="E106" t="s">
+        <v>181</v>
+      </c>
+      <c r="G106" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x98</v>
       </c>
-      <c r="H104" s="14" t="str">
+      <c r="I106" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_152() throws Exception { verify( (char) 152, ""); }</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105">
+    <row r="107" spans="1:9">
+      <c r="A107">
         <f t="shared" si="9"/>
         <v>153</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
+        <v>487</v>
+      </c>
+      <c r="D107" t="s">
         <v>488</v>
       </c>
-      <c r="D105" t="s">
-        <v>489</v>
-      </c>
-      <c r="E105" t="s">
-        <v>182</v>
-      </c>
-      <c r="F105" s="20" t="str">
+      <c r="E107" t="s">
+        <v>181</v>
+      </c>
+      <c r="G107" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x99</v>
       </c>
-      <c r="H105" s="14" t="str">
+      <c r="I107" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_153() throws Exception { verify( (char) 153, ""); }</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106">
+    <row r="108" spans="1:9">
+      <c r="A108">
         <f t="shared" si="9"/>
         <v>154</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
+        <v>489</v>
+      </c>
+      <c r="D108" t="s">
         <v>490</v>
       </c>
-      <c r="D106" t="s">
-        <v>491</v>
-      </c>
-      <c r="E106" t="s">
-        <v>182</v>
-      </c>
-      <c r="F106" s="20" t="str">
+      <c r="E108" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9a</v>
       </c>
-      <c r="H106" s="14" t="str">
+      <c r="I108" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_154() throws Exception { verify( (char) 154, ""); }</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107">
+    <row r="109" spans="1:9">
+      <c r="A109">
         <f t="shared" si="9"/>
         <v>155</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
+        <v>491</v>
+      </c>
+      <c r="D109" t="s">
         <v>492</v>
       </c>
-      <c r="D107" t="s">
-        <v>493</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
-      </c>
-      <c r="F107" s="20" t="str">
+      <c r="E109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9b</v>
       </c>
-      <c r="H107" s="14" t="str">
+      <c r="I109" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_155() throws Exception { verify( (char) 155, ""); }</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108">
+    <row r="110" spans="1:9">
+      <c r="A110">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
+        <v>493</v>
+      </c>
+      <c r="D110" t="s">
         <v>494</v>
       </c>
-      <c r="D108" t="s">
-        <v>495</v>
-      </c>
-      <c r="E108" t="s">
-        <v>182</v>
-      </c>
-      <c r="F108" s="20" t="str">
+      <c r="E110" t="s">
+        <v>181</v>
+      </c>
+      <c r="G110" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9c</v>
       </c>
-      <c r="H108" s="14" t="str">
+      <c r="I110" s="14" t="str">
         <f t="shared" si="10"/>
         <v>@Test public void testConvert_156() throws Exception { verify( (char) 156, ""); }</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B109" s="18" t="s">
+    <row r="111" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B111" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="D109" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F109" s="18" t="str">
+      <c r="E111" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G111" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9d</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="18" customFormat="1" hidden="1">
-      <c r="B110" s="18" t="s">
+    <row r="112" spans="1:9" s="18" customFormat="1" hidden="1">
+      <c r="B112" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F110" s="18" t="str">
+      <c r="E112" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G112" s="18" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9e</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111">
-        <f t="shared" ref="A111:A174" si="11">HEX2DEC(MID(B111,3,4))</f>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <f t="shared" ref="A113:A176" si="11">HEX2DEC(MID(B113,3,4))</f>
         <v>159</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
+        <v>499</v>
+      </c>
+      <c r="D113" t="s">
         <v>500</v>
       </c>
-      <c r="D111" t="s">
-        <v>501</v>
-      </c>
-      <c r="E111" t="s">
-        <v>182</v>
-      </c>
-      <c r="F111" s="20" t="str">
+      <c r="E113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G113" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\x9f</v>
       </c>
-      <c r="H111" s="14" t="str">
-        <f t="shared" ref="H111:H174" si="12">CONCATENATE("@Test public void testConvert_",A111,"() throws Exception { verify( (char) ",A111, ", """,C111,"""); }")</f>
+      <c r="I113" s="14" t="str">
+        <f t="shared" ref="I113:I176" si="12">CONCATENATE("@Test public void testConvert_",A113,"() throws Exception { verify( (char) ",A113, ", """,C113,"""); }")</f>
         <v>@Test public void testConvert_159() throws Exception { verify( (char) 159, ""); }</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112">
+    <row r="114" spans="1:9">
+      <c r="A114">
         <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
+        <v>501</v>
+      </c>
+      <c r="D114" t="s">
         <v>502</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E114" t="s">
         <v>503</v>
       </c>
-      <c r="E112" t="s">
-        <v>504</v>
-      </c>
-      <c r="F112" s="20" t="str">
+      <c r="G114" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa0</v>
       </c>
-      <c r="H112" s="14" t="str">
+      <c r="I114" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_160() throws Exception { verify( (char) 160, ""); }</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113">
+    <row r="115" spans="1:9">
+      <c r="A115">
         <f t="shared" si="11"/>
         <v>161</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
+        <v>504</v>
+      </c>
+      <c r="C115" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="D115" t="s">
         <v>506</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E115" t="s">
         <v>507</v>
       </c>
-      <c r="E113" t="s">
-        <v>508</v>
-      </c>
-      <c r="F113" s="20" t="str">
+      <c r="F115" t="s">
+        <v>882</v>
+      </c>
+      <c r="G115" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa1</v>
       </c>
-      <c r="H113" s="25" t="str">
+      <c r="I115" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_161() throws Exception { verify( (char) 161, "¡"); }</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114">
+    <row r="116" spans="1:9">
+      <c r="A116">
         <f t="shared" si="11"/>
         <v>162</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
+        <v>508</v>
+      </c>
+      <c r="C116" t="s">
         <v>509</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D116" t="s">
         <v>510</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E116" t="s">
         <v>511</v>
       </c>
-      <c r="E114" t="s">
-        <v>512</v>
-      </c>
-      <c r="F114" s="20" t="str">
+      <c r="G116" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa2</v>
       </c>
-      <c r="H114" s="14" t="str">
+      <c r="I116" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_162() throws Exception { verify( (char) 162, "¢"); }</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115">
+    <row r="117" spans="1:9">
+      <c r="A117">
         <f t="shared" si="11"/>
         <v>163</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
+        <v>512</v>
+      </c>
+      <c r="C117" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="D117" t="s">
         <v>514</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E117" t="s">
         <v>515</v>
       </c>
-      <c r="E115" t="s">
-        <v>516</v>
-      </c>
-      <c r="F115" s="20" t="str">
+      <c r="G117" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa3</v>
       </c>
-      <c r="H115" s="14" t="str">
+      <c r="I117" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_163() throws Exception { verify( (char) 163, "£"); }</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116">
+    <row r="118" spans="1:9">
+      <c r="A118">
         <f t="shared" si="11"/>
         <v>164</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
+        <v>516</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D118" t="s">
         <v>518</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E118" t="s">
         <v>519</v>
       </c>
-      <c r="E116" t="s">
-        <v>520</v>
-      </c>
-      <c r="F116" s="20" t="str">
+      <c r="G118" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa4</v>
       </c>
-      <c r="H116" s="14" t="str">
+      <c r="I118" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_164() throws Exception { verify( (char) 164, "¤"); }</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117">
+    <row r="119" spans="1:9">
+      <c r="A119">
         <f t="shared" si="11"/>
         <v>165</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
+        <v>520</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D119" t="s">
         <v>522</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E119" t="s">
         <v>523</v>
       </c>
-      <c r="E117" t="s">
-        <v>524</v>
-      </c>
-      <c r="F117" s="20" t="str">
+      <c r="G119" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa5</v>
       </c>
-      <c r="H117" s="14" t="str">
+      <c r="I119" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_165() throws Exception { verify( (char) 165, "¥"); }</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118">
+    <row r="120" spans="1:9">
+      <c r="A120">
         <f t="shared" si="11"/>
         <v>166</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
+        <v>524</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D120" t="s">
         <v>526</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E120" t="s">
         <v>527</v>
       </c>
-      <c r="E118" t="s">
-        <v>528</v>
-      </c>
-      <c r="F118" s="20" t="str">
+      <c r="G120" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa6</v>
       </c>
-      <c r="H118" s="14" t="str">
+      <c r="I120" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_166() throws Exception { verify( (char) 166, "¦"); }</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119">
+    <row r="121" spans="1:9">
+      <c r="A121">
         <f t="shared" si="11"/>
         <v>167</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
+        <v>528</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D121" t="s">
         <v>530</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E121" t="s">
         <v>531</v>
       </c>
-      <c r="E119" t="s">
-        <v>532</v>
-      </c>
-      <c r="F119" s="20" t="str">
+      <c r="G121" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa7</v>
       </c>
-      <c r="H119" s="14" t="str">
+      <c r="I121" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_167() throws Exception { verify( (char) 167, "§"); }</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120">
+    <row r="122" spans="1:9">
+      <c r="A122">
         <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
+        <v>532</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D122" t="s">
         <v>534</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E122" t="s">
         <v>535</v>
       </c>
-      <c r="E120" t="s">
-        <v>536</v>
-      </c>
-      <c r="F120" s="20" t="str">
+      <c r="F122" t="s">
+        <v>881</v>
+      </c>
+      <c r="G122" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa8</v>
       </c>
-      <c r="H120" s="25" t="str">
+      <c r="I122" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_168() throws Exception { verify( (char) 168, "¨"); }</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121">
+    <row r="123" spans="1:9">
+      <c r="A123">
         <f t="shared" si="11"/>
         <v>169</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
+        <v>536</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D123" t="s">
         <v>538</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E123" t="s">
         <v>539</v>
       </c>
-      <c r="E121" t="s">
-        <v>540</v>
-      </c>
-      <c r="F121" s="20" t="str">
+      <c r="F123" t="s">
+        <v>880</v>
+      </c>
+      <c r="G123" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xa9</v>
       </c>
-      <c r="H121" s="25" t="str">
+      <c r="I123" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_169() throws Exception { verify( (char) 169, "©"); }</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122">
+    <row r="124" spans="1:9">
+      <c r="A124">
         <f t="shared" si="11"/>
         <v>170</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
+        <v>540</v>
+      </c>
+      <c r="C124" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="D124" t="s">
         <v>542</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E124" t="s">
         <v>543</v>
       </c>
-      <c r="E122" t="s">
-        <v>544</v>
-      </c>
-      <c r="F122" s="20" t="str">
+      <c r="G124" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xaa</v>
       </c>
-      <c r="H122" s="14" t="str">
+      <c r="I124" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_170() throws Exception { verify( (char) 170, "ª"); }</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123">
+    <row r="125" spans="1:9">
+      <c r="A125">
         <f t="shared" si="11"/>
         <v>171</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D125" t="s">
         <v>546</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E125" t="s">
         <v>547</v>
       </c>
-      <c r="E123" t="s">
-        <v>548</v>
-      </c>
-      <c r="F123" s="20" t="str">
+      <c r="G125" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xab</v>
       </c>
-      <c r="H123" s="14" t="str">
+      <c r="I125" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_171() throws Exception { verify( (char) 171, "«"); }</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124">
+    <row r="126" spans="1:9">
+      <c r="A126">
         <f t="shared" si="11"/>
         <v>172</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
+        <v>548</v>
+      </c>
+      <c r="C126" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="D126" t="s">
         <v>550</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E126" t="s">
         <v>551</v>
       </c>
-      <c r="E124" t="s">
-        <v>552</v>
-      </c>
-      <c r="F124" s="20" t="str">
+      <c r="G126" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xac</v>
       </c>
-      <c r="H124" s="14" t="str">
+      <c r="I126" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_172() throws Exception { verify( (char) 172, "¬"); }</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
-      <c r="A125">
+    <row r="127" spans="1:9">
+      <c r="A127">
         <f t="shared" si="11"/>
         <v>173</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B127" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" t="s">
         <v>553</v>
       </c>
-      <c r="C125" s="29"/>
-      <c r="D125" t="s">
+      <c r="E127" t="s">
         <v>554</v>
       </c>
-      <c r="E125" t="s">
-        <v>555</v>
-      </c>
-      <c r="F125" s="20" t="str">
+      <c r="F127" t="s">
+        <v>879</v>
+      </c>
+      <c r="G127" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xad</v>
       </c>
-      <c r="G125" t="s">
-        <v>852</v>
-      </c>
-      <c r="H125" s="25" t="str">
+      <c r="H127" t="s">
+        <v>851</v>
+      </c>
+      <c r="I127" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_173() throws Exception { verify( (char) 173, ""); }</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
-      <c r="A126">
+    <row r="128" spans="1:9">
+      <c r="A128">
         <f t="shared" si="11"/>
         <v>174</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" t="s">
+        <v>555</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D128" t="s">
         <v>557</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E128" t="s">
         <v>558</v>
       </c>
-      <c r="E126" t="s">
-        <v>559</v>
-      </c>
-      <c r="F126" s="20" t="str">
+      <c r="G128" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xae</v>
       </c>
-      <c r="H126" s="14" t="str">
+      <c r="I128" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_174() throws Exception { verify( (char) 174, "®"); }</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127">
+    <row r="129" spans="1:9">
+      <c r="A129">
         <f t="shared" si="11"/>
         <v>175</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
+        <v>559</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D129" t="s">
         <v>561</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E129" t="s">
         <v>562</v>
       </c>
-      <c r="E127" t="s">
-        <v>563</v>
-      </c>
-      <c r="F127" s="20" t="str">
+      <c r="G129" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xaf</v>
       </c>
-      <c r="H127" s="14" t="str">
+      <c r="I129" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_175() throws Exception { verify( (char) 175, "¯"); }</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
-      <c r="A128">
+    <row r="130" spans="1:9">
+      <c r="A130">
         <f t="shared" si="11"/>
         <v>176</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" t="s">
+        <v>563</v>
+      </c>
+      <c r="C130" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="D130" t="s">
         <v>565</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E130" t="s">
         <v>566</v>
       </c>
-      <c r="E128" t="s">
-        <v>567</v>
-      </c>
-      <c r="F128" s="20" t="str">
+      <c r="F130" t="s">
+        <v>895</v>
+      </c>
+      <c r="G130" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb0</v>
       </c>
-      <c r="H128" s="25" t="str">
+      <c r="I130" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_176() throws Exception { verify( (char) 176, "°"); }</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129">
+    <row r="131" spans="1:9">
+      <c r="A131">
         <f t="shared" si="11"/>
         <v>177</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" t="s">
+        <v>567</v>
+      </c>
+      <c r="C131" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="D131" t="s">
         <v>569</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E131" t="s">
         <v>570</v>
       </c>
-      <c r="E129" t="s">
-        <v>571</v>
-      </c>
-      <c r="F129" s="20" t="str">
+      <c r="F131" t="s">
+        <v>894</v>
+      </c>
+      <c r="G131" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb1</v>
       </c>
-      <c r="H129" s="14" t="str">
+      <c r="I131" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_177() throws Exception { verify( (char) 177, "±"); }</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130">
+    <row r="132" spans="1:9">
+      <c r="A132">
         <f t="shared" si="11"/>
         <v>178</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
+        <v>571</v>
+      </c>
+      <c r="C132" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="D132" t="s">
         <v>573</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E132" t="s">
         <v>574</v>
       </c>
-      <c r="E130" t="s">
-        <v>575</v>
-      </c>
-      <c r="F130" s="20" t="str">
+      <c r="F132" t="s">
+        <v>893</v>
+      </c>
+      <c r="G132" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb2</v>
       </c>
-      <c r="H130" s="25" t="str">
+      <c r="I132" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_178() throws Exception { verify( (char) 178, "²"); }</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131">
+    <row r="133" spans="1:9">
+      <c r="A133">
         <f t="shared" si="11"/>
         <v>179</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
+        <v>575</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D133" t="s">
         <v>577</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E133" t="s">
         <v>578</v>
       </c>
-      <c r="E131" t="s">
-        <v>579</v>
-      </c>
-      <c r="F131" s="20" t="str">
+      <c r="G133" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb3</v>
       </c>
-      <c r="H131" s="14" t="str">
+      <c r="I133" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_179() throws Exception { verify( (char) 179, "³"); }</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
+    <row r="134" spans="1:9">
+      <c r="A134">
         <f t="shared" si="11"/>
         <v>180</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
+        <v>579</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D134" t="s">
         <v>581</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E134" t="s">
         <v>582</v>
       </c>
-      <c r="E132" t="s">
-        <v>583</v>
-      </c>
-      <c r="F132" s="20" t="str">
+      <c r="G134" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb4</v>
       </c>
-      <c r="H132" s="14" t="str">
+      <c r="I134" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_180() throws Exception { verify( (char) 180, "´"); }</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
+    <row r="135" spans="1:9">
+      <c r="A135">
         <f t="shared" si="11"/>
         <v>181</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
+        <v>583</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D135" t="s">
         <v>585</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E135" t="s">
         <v>586</v>
       </c>
-      <c r="E133" t="s">
-        <v>587</v>
-      </c>
-      <c r="F133" s="20" t="str">
+      <c r="G135" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb5</v>
       </c>
-      <c r="H133" s="14" t="str">
+      <c r="I135" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_181() throws Exception { verify( (char) 181, "µ"); }</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134">
+    <row r="136" spans="1:9">
+      <c r="A136">
         <f t="shared" si="11"/>
         <v>182</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
+        <v>587</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D136" t="s">
         <v>589</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E136" t="s">
         <v>590</v>
       </c>
-      <c r="E134" t="s">
-        <v>591</v>
-      </c>
-      <c r="F134" s="20" t="str">
+      <c r="G136" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb6</v>
       </c>
-      <c r="H134" s="14" t="str">
+      <c r="I136" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_182() throws Exception { verify( (char) 182, "¶"); }</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
-      <c r="A135">
+    <row r="137" spans="1:9">
+      <c r="A137">
         <f t="shared" si="11"/>
         <v>183</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" t="s">
+        <v>591</v>
+      </c>
+      <c r="C137" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="D137" t="s">
         <v>593</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E137" t="s">
         <v>594</v>
       </c>
-      <c r="E135" t="s">
-        <v>595</v>
-      </c>
-      <c r="F135" s="20" t="str">
+      <c r="F137" t="s">
+        <v>878</v>
+      </c>
+      <c r="G137" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb7</v>
       </c>
-      <c r="G135" t="s">
-        <v>852</v>
-      </c>
-      <c r="H135" s="25" t="str">
+      <c r="H137" t="s">
+        <v>851</v>
+      </c>
+      <c r="I137" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_183() throws Exception { verify( (char) 183, "·"); }</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136">
+    <row r="138" spans="1:9">
+      <c r="A138">
         <f t="shared" si="11"/>
         <v>184</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
+        <v>595</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D138" t="s">
         <v>597</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E138" t="s">
         <v>598</v>
       </c>
-      <c r="E136" t="s">
-        <v>599</v>
-      </c>
-      <c r="F136" s="20" t="str">
+      <c r="G138" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb8</v>
       </c>
-      <c r="H136" s="14" t="str">
+      <c r="I138" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_184() throws Exception { verify( (char) 184, "¸"); }</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137">
+    <row r="139" spans="1:9">
+      <c r="A139">
         <f t="shared" si="11"/>
         <v>185</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" t="s">
+        <v>599</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D139" t="s">
         <v>601</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E139" t="s">
         <v>602</v>
       </c>
-      <c r="E137" t="s">
-        <v>603</v>
-      </c>
-      <c r="F137" s="20" t="str">
+      <c r="G139" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xb9</v>
       </c>
-      <c r="H137" s="14" t="str">
+      <c r="I139" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_185() throws Exception { verify( (char) 185, "¹"); }</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
-      <c r="A138">
+    <row r="140" spans="1:9">
+      <c r="A140">
         <f t="shared" si="11"/>
         <v>186</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
+        <v>603</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D140" t="s">
         <v>605</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E140" t="s">
         <v>606</v>
       </c>
-      <c r="E138" t="s">
-        <v>607</v>
-      </c>
-      <c r="F138" s="20" t="str">
+      <c r="G140" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xba</v>
       </c>
-      <c r="H138" s="14" t="str">
+      <c r="I140" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_186() throws Exception { verify( (char) 186, "º"); }</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139">
+    <row r="141" spans="1:9">
+      <c r="A141">
         <f t="shared" si="11"/>
         <v>187</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
+        <v>607</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D141" t="s">
         <v>609</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E141" t="s">
         <v>610</v>
       </c>
-      <c r="E139" t="s">
-        <v>611</v>
-      </c>
-      <c r="F139" s="20" t="str">
+      <c r="G141" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xbb</v>
       </c>
-      <c r="H139" s="14" t="str">
+      <c r="I141" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_187() throws Exception { verify( (char) 187, "»"); }</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140">
+    <row r="142" spans="1:9">
+      <c r="A142">
         <f t="shared" si="11"/>
         <v>188</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
+        <v>611</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D142" t="s">
         <v>613</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E142" t="s">
         <v>614</v>
       </c>
-      <c r="E140" t="s">
-        <v>615</v>
-      </c>
-      <c r="F140" s="20" t="str">
+      <c r="G142" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xbc</v>
       </c>
-      <c r="H140" s="14" t="str">
+      <c r="I142" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_188() throws Exception { verify( (char) 188, "¼"); }</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141">
+    <row r="143" spans="1:9">
+      <c r="A143">
         <f t="shared" si="11"/>
         <v>189</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B143" t="s">
+        <v>615</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D143" t="s">
         <v>617</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E143" t="s">
         <v>618</v>
       </c>
-      <c r="E141" t="s">
-        <v>619</v>
-      </c>
-      <c r="F141" s="20" t="str">
+      <c r="G143" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xbd</v>
       </c>
-      <c r="H141" s="14" t="str">
+      <c r="I143" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_189() throws Exception { verify( (char) 189, "½"); }</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="A142">
+    <row r="144" spans="1:9">
+      <c r="A144">
         <f t="shared" si="11"/>
         <v>190</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
+        <v>619</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D144" t="s">
         <v>621</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E144" t="s">
         <v>622</v>
       </c>
-      <c r="E142" t="s">
-        <v>623</v>
-      </c>
-      <c r="F142" s="20" t="str">
+      <c r="G144" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xbe</v>
       </c>
-      <c r="H142" s="14" t="str">
+      <c r="I144" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_190() throws Exception { verify( (char) 190, "¾"); }</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143">
+    <row r="145" spans="1:9">
+      <c r="A145">
         <f t="shared" si="11"/>
         <v>191</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" t="s">
+        <v>623</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D145" t="s">
         <v>625</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E145" t="s">
         <v>626</v>
       </c>
-      <c r="E143" t="s">
-        <v>627</v>
-      </c>
-      <c r="F143" s="20" t="str">
+      <c r="G145" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc2\xbf</v>
       </c>
-      <c r="H143" s="14" t="str">
+      <c r="I145" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_191() throws Exception { verify( (char) 191, "¿"); }</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144">
+    <row r="146" spans="1:9">
+      <c r="A146">
         <f t="shared" si="11"/>
         <v>192</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
+        <v>627</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="s">
         <v>628</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E146" t="s">
         <v>629</v>
       </c>
-      <c r="E144" t="s">
-        <v>630</v>
-      </c>
-      <c r="F144" s="20" t="str">
+      <c r="G146" s="20" t="str">
         <f t="shared" si="6"/>
         <v>\xc3\x80</v>
       </c>
-      <c r="H144" s="14" t="str">
+      <c r="I146" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_192() throws Exception { verify( (char) 192, "À"); }</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
+    <row r="147" spans="1:9">
+      <c r="A147">
         <f t="shared" si="11"/>
         <v>193</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" t="s">
+        <v>630</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D147" t="s">
         <v>632</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E147" t="s">
         <v>633</v>
       </c>
-      <c r="E145" t="s">
-        <v>634</v>
-      </c>
-      <c r="F145" s="20" t="str">
-        <f t="shared" ref="F145:F207" si="13">CONCATENATE("\x",LEFT(D145,2),"\x",MID(D145,4,2))</f>
+      <c r="G147" s="20" t="str">
+        <f t="shared" ref="G147:G209" si="13">CONCATENATE("\x",LEFT(D147,2),"\x",MID(D147,4,2))</f>
         <v>\xc3\x81</v>
       </c>
-      <c r="H145" s="14" t="str">
+      <c r="I147" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_193() throws Exception { verify( (char) 193, "Á"); }</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
+    <row r="148" spans="1:9">
+      <c r="A148">
         <f t="shared" si="11"/>
         <v>194</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
+        <v>634</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D148" t="s">
         <v>636</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E148" t="s">
         <v>637</v>
       </c>
-      <c r="E146" t="s">
-        <v>638</v>
-      </c>
-      <c r="F146" s="20" t="str">
+      <c r="G148" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x82</v>
       </c>
-      <c r="H146" s="14" t="str">
+      <c r="I148" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_194() throws Exception { verify( (char) 194, "Â"); }</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147">
+    <row r="149" spans="1:9">
+      <c r="A149">
         <f t="shared" si="11"/>
         <v>195</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B149" t="s">
+        <v>638</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D149" t="s">
         <v>640</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E149" t="s">
         <v>641</v>
       </c>
-      <c r="E147" t="s">
-        <v>642</v>
-      </c>
-      <c r="F147" s="20" t="str">
+      <c r="G149" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x83</v>
       </c>
-      <c r="H147" s="14" t="str">
+      <c r="I149" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_195() throws Exception { verify( (char) 195, "Ã"); }</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
-      <c r="A148">
+    <row r="150" spans="1:9">
+      <c r="A150">
         <f t="shared" si="11"/>
         <v>196</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
+        <v>642</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" t="s">
         <v>643</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E150" t="s">
         <v>644</v>
       </c>
-      <c r="E148" t="s">
-        <v>645</v>
-      </c>
-      <c r="F148" s="20" t="str">
+      <c r="G150" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x84</v>
       </c>
-      <c r="H148" s="14" t="str">
+      <c r="I150" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_196() throws Exception { verify( (char) 196, "Ä"); }</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
-      <c r="A149">
+    <row r="151" spans="1:9">
+      <c r="A151">
         <f t="shared" si="11"/>
         <v>197</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
+        <v>645</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D151" t="s">
         <v>646</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="E151" t="s">
         <v>647</v>
       </c>
-      <c r="E149" t="s">
-        <v>648</v>
-      </c>
-      <c r="F149" s="20" t="str">
+      <c r="G151" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x85</v>
       </c>
-      <c r="H149" s="14" t="str">
+      <c r="I151" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_197() throws Exception { verify( (char) 197, "Å"); }</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
-      <c r="A150">
+    <row r="152" spans="1:9">
+      <c r="A152">
         <f t="shared" si="11"/>
         <v>198</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B152" t="s">
+        <v>648</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D152" t="s">
         <v>650</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E152" t="s">
         <v>651</v>
       </c>
-      <c r="E150" t="s">
-        <v>652</v>
-      </c>
-      <c r="F150" s="20" t="str">
+      <c r="G152" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x86</v>
       </c>
-      <c r="H150" s="14" t="str">
+      <c r="I152" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_198() throws Exception { verify( (char) 198, "Æ"); }</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151">
+    <row r="153" spans="1:9">
+      <c r="A153">
         <f t="shared" si="11"/>
         <v>199</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B153" t="s">
+        <v>652</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" t="s">
         <v>653</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="E153" t="s">
         <v>654</v>
       </c>
-      <c r="E151" t="s">
-        <v>655</v>
-      </c>
-      <c r="F151" s="20" t="str">
+      <c r="G153" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x87</v>
       </c>
-      <c r="H151" s="14" t="str">
+      <c r="I153" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_199() throws Exception { verify( (char) 199, "Ç"); }</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152">
+    <row r="154" spans="1:9">
+      <c r="A154">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
+        <v>655</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" t="s">
         <v>656</v>
       </c>
-      <c r="C152" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E154" t="s">
         <v>657</v>
       </c>
-      <c r="E152" t="s">
-        <v>658</v>
-      </c>
-      <c r="F152" s="20" t="str">
+      <c r="G154" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x88</v>
       </c>
-      <c r="H152" s="14" t="str">
+      <c r="I154" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_200() throws Exception { verify( (char) 200, "È"); }</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153">
+    <row r="155" spans="1:9">
+      <c r="A155">
         <f t="shared" si="11"/>
         <v>201</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
+        <v>658</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D155" t="s">
         <v>659</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E155" t="s">
         <v>660</v>
       </c>
-      <c r="E153" t="s">
-        <v>661</v>
-      </c>
-      <c r="F153" s="20" t="str">
+      <c r="G155" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x89</v>
       </c>
-      <c r="H153" s="14" t="str">
+      <c r="I155" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_201() throws Exception { verify( (char) 201, "É"); }</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154">
+    <row r="156" spans="1:9">
+      <c r="A156">
         <f t="shared" si="11"/>
         <v>202</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
+        <v>661</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D156" t="s">
         <v>663</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E156" t="s">
         <v>664</v>
       </c>
-      <c r="E154" t="s">
-        <v>665</v>
-      </c>
-      <c r="F154" s="20" t="str">
+      <c r="G156" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8a</v>
       </c>
-      <c r="H154" s="14" t="str">
+      <c r="I156" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_202() throws Exception { verify( (char) 202, "Ê"); }</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
-      <c r="A155">
+    <row r="157" spans="1:9">
+      <c r="A157">
         <f t="shared" si="11"/>
         <v>203</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B157" t="s">
+        <v>665</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157" t="s">
         <v>666</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="E157" t="s">
         <v>667</v>
       </c>
-      <c r="E155" t="s">
-        <v>668</v>
-      </c>
-      <c r="F155" s="20" t="str">
+      <c r="G157" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8b</v>
       </c>
-      <c r="H155" s="14" t="str">
+      <c r="I157" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_203() throws Exception { verify( (char) 203, "Ë"); }</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
-      <c r="A156">
+    <row r="158" spans="1:9">
+      <c r="A158">
         <f t="shared" si="11"/>
         <v>204</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
+        <v>668</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D158" t="s">
         <v>669</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E158" t="s">
         <v>670</v>
       </c>
-      <c r="E156" t="s">
-        <v>671</v>
-      </c>
-      <c r="F156" s="20" t="str">
+      <c r="G158" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8c</v>
       </c>
-      <c r="H156" s="14" t="str">
+      <c r="I158" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_204() throws Exception { verify( (char) 204, "Ì"); }</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
-      <c r="A157">
+    <row r="159" spans="1:9">
+      <c r="A159">
         <f t="shared" si="11"/>
         <v>205</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B159" t="s">
+        <v>671</v>
+      </c>
+      <c r="C159" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="D159" t="s">
         <v>673</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E159" t="s">
         <v>674</v>
       </c>
-      <c r="E157" t="s">
-        <v>675</v>
-      </c>
-      <c r="F157" s="20" t="str">
+      <c r="F159" t="s">
+        <v>892</v>
+      </c>
+      <c r="G159" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8d</v>
       </c>
-      <c r="H157" s="25" t="str">
+      <c r="I159" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_205() throws Exception { verify( (char) 205, "Í"); }</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
-      <c r="A158">
+    <row r="160" spans="1:9">
+      <c r="A160">
         <f t="shared" si="11"/>
         <v>206</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
+        <v>675</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D160" t="s">
         <v>677</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E160" t="s">
         <v>678</v>
       </c>
-      <c r="E158" t="s">
-        <v>679</v>
-      </c>
-      <c r="F158" s="20" t="str">
+      <c r="G160" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8e</v>
       </c>
-      <c r="H158" s="14" t="str">
+      <c r="I160" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_206() throws Exception { verify( (char) 206, "Î"); }</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
-      <c r="A159">
+    <row r="161" spans="1:9">
+      <c r="A161">
         <f t="shared" si="11"/>
         <v>207</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B161" t="s">
+        <v>679</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" t="s">
         <v>680</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="E161" t="s">
         <v>681</v>
       </c>
-      <c r="E159" t="s">
-        <v>682</v>
-      </c>
-      <c r="F159" s="20" t="str">
+      <c r="G161" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x8f</v>
       </c>
-      <c r="H159" s="14" t="str">
+      <c r="I161" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_207() throws Exception { verify( (char) 207, "Ï"); }</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
-      <c r="A160">
+    <row r="162" spans="1:9">
+      <c r="A162">
         <f t="shared" si="11"/>
         <v>208</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
+        <v>682</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D162" t="s">
         <v>683</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="E162" t="s">
         <v>684</v>
       </c>
-      <c r="E160" t="s">
-        <v>685</v>
-      </c>
-      <c r="F160" s="20" t="str">
+      <c r="F162" t="s">
+        <v>891</v>
+      </c>
+      <c r="G162" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x90</v>
       </c>
-      <c r="H160" s="25" t="str">
+      <c r="I162" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_208() throws Exception { verify( (char) 208, "Ð"); }</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
-      <c r="A161">
+    <row r="163" spans="1:9">
+      <c r="A163">
         <f t="shared" si="11"/>
         <v>209</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B163" t="s">
+        <v>685</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" t="s">
         <v>686</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="E163" t="s">
         <v>687</v>
       </c>
-      <c r="E161" t="s">
-        <v>688</v>
-      </c>
-      <c r="F161" s="20" t="str">
+      <c r="G163" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x91</v>
       </c>
-      <c r="H161" s="14" t="str">
+      <c r="I163" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_209() throws Exception { verify( (char) 209, "Ñ"); }</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162">
+    <row r="164" spans="1:9">
+      <c r="A164">
         <f t="shared" si="11"/>
         <v>210</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B164" t="s">
+        <v>688</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D164" t="s">
         <v>689</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="E164" t="s">
         <v>690</v>
       </c>
-      <c r="E162" t="s">
-        <v>691</v>
-      </c>
-      <c r="F162" s="20" t="str">
+      <c r="F164" t="s">
+        <v>890</v>
+      </c>
+      <c r="G164" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x92</v>
       </c>
-      <c r="H162" s="25" t="str">
+      <c r="I164" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_210() throws Exception { verify( (char) 210, "Ò"); }</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163">
+    <row r="165" spans="1:9">
+      <c r="A165">
         <f t="shared" si="11"/>
         <v>211</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B165" t="s">
+        <v>691</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D165" t="s">
         <v>693</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E165" t="s">
         <v>694</v>
       </c>
-      <c r="E163" t="s">
-        <v>695</v>
-      </c>
-      <c r="F163" s="20" t="str">
+      <c r="G165" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x93</v>
       </c>
-      <c r="H163" s="14" t="str">
+      <c r="I165" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_211() throws Exception { verify( (char) 211, "Ó"); }</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="A164">
+    <row r="166" spans="1:9">
+      <c r="A166">
         <f t="shared" si="11"/>
         <v>212</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B166" t="s">
+        <v>695</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D166" t="s">
         <v>696</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="E166" t="s">
         <v>697</v>
       </c>
-      <c r="E164" t="s">
-        <v>698</v>
-      </c>
-      <c r="F164" s="20" t="str">
+      <c r="G166" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x94</v>
       </c>
-      <c r="H164" s="14" t="str">
+      <c r="I166" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_212() throws Exception { verify( (char) 212, "Ô"); }</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
-      <c r="A165">
+    <row r="167" spans="1:9">
+      <c r="A167">
         <f t="shared" si="11"/>
         <v>213</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
+        <v>698</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D167" t="s">
         <v>700</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E167" t="s">
         <v>701</v>
       </c>
-      <c r="E165" t="s">
-        <v>702</v>
-      </c>
-      <c r="F165" s="20" t="str">
+      <c r="G167" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x95</v>
       </c>
-      <c r="H165" s="14" t="str">
+      <c r="I167" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_213() throws Exception { verify( (char) 213, "Õ"); }</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="A166">
+    <row r="168" spans="1:9">
+      <c r="A168">
         <f t="shared" si="11"/>
         <v>214</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B168" t="s">
+        <v>702</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" t="s">
         <v>703</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="E168" t="s">
         <v>704</v>
       </c>
-      <c r="E166" t="s">
-        <v>705</v>
-      </c>
-      <c r="F166" s="20" t="str">
+      <c r="G168" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x96</v>
       </c>
-      <c r="H166" s="14" t="str">
+      <c r="I168" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_214() throws Exception { verify( (char) 214, "Ö"); }</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
-      <c r="A167">
+    <row r="169" spans="1:9">
+      <c r="A169">
         <f t="shared" si="11"/>
         <v>215</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
+        <v>705</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D169" t="s">
         <v>706</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="E169" t="s">
         <v>707</v>
       </c>
-      <c r="E167" t="s">
-        <v>708</v>
-      </c>
-      <c r="F167" s="20" t="str">
+      <c r="F169" t="s">
+        <v>889</v>
+      </c>
+      <c r="G169" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x97</v>
       </c>
-      <c r="H167" s="25" t="str">
+      <c r="I169" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_215() throws Exception { verify( (char) 215, "×"); }</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
-      <c r="A168">
+    <row r="170" spans="1:9">
+      <c r="A170">
         <f t="shared" si="11"/>
         <v>216</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B170" t="s">
+        <v>708</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D170" t="s">
         <v>710</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E170" t="s">
         <v>711</v>
       </c>
-      <c r="E168" t="s">
-        <v>712</v>
-      </c>
-      <c r="F168" s="20" t="str">
+      <c r="G170" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x98</v>
       </c>
-      <c r="H168" s="14" t="str">
+      <c r="I170" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_216() throws Exception { verify( (char) 216, "Ø"); }</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
-      <c r="A169">
+    <row r="171" spans="1:9">
+      <c r="A171">
         <f t="shared" si="11"/>
         <v>217</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B171" t="s">
+        <v>712</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D171" t="s">
         <v>713</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="E171" t="s">
         <v>714</v>
       </c>
-      <c r="E169" t="s">
-        <v>715</v>
-      </c>
-      <c r="F169" s="20" t="str">
+      <c r="G171" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x99</v>
       </c>
-      <c r="H169" s="14" t="str">
+      <c r="I171" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_217() throws Exception { verify( (char) 217, "Ù"); }</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
-      <c r="A170">
+    <row r="172" spans="1:9">
+      <c r="A172">
         <f t="shared" si="11"/>
         <v>218</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B172" t="s">
+        <v>715</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D172" t="s">
         <v>717</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E172" t="s">
         <v>718</v>
       </c>
-      <c r="E170" t="s">
-        <v>719</v>
-      </c>
-      <c r="F170" s="20" t="str">
+      <c r="G172" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9a</v>
       </c>
-      <c r="H170" s="14" t="str">
+      <c r="I172" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_218() throws Exception { verify( (char) 218, "Ú"); }</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171">
+    <row r="173" spans="1:9">
+      <c r="A173">
         <f t="shared" si="11"/>
         <v>219</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B173" t="s">
+        <v>719</v>
+      </c>
+      <c r="C173" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="D173" t="s">
         <v>721</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E173" t="s">
         <v>722</v>
       </c>
-      <c r="E171" t="s">
-        <v>723</v>
-      </c>
-      <c r="F171" s="20" t="str">
+      <c r="F173" t="s">
+        <v>888</v>
+      </c>
+      <c r="G173" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9b</v>
       </c>
-      <c r="H171" s="25" t="str">
+      <c r="I173" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_219() throws Exception { verify( (char) 219, "Û"); }</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172">
+    <row r="174" spans="1:9">
+      <c r="A174">
         <f t="shared" si="11"/>
         <v>220</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B174" t="s">
+        <v>723</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D174" t="s">
         <v>724</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="E174" t="s">
         <v>725</v>
       </c>
-      <c r="E172" t="s">
-        <v>726</v>
-      </c>
-      <c r="F172" s="20" t="str">
+      <c r="G174" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9c</v>
       </c>
-      <c r="H172" s="14" t="str">
+      <c r="I174" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_220() throws Exception { verify( (char) 220, "Ü"); }</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
-      <c r="A173">
+    <row r="175" spans="1:9">
+      <c r="A175">
         <f t="shared" si="11"/>
         <v>221</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
+        <v>726</v>
+      </c>
+      <c r="C175" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="D175" t="s">
         <v>728</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E175" t="s">
         <v>729</v>
       </c>
-      <c r="E173" t="s">
-        <v>730</v>
-      </c>
-      <c r="F173" s="20" t="str">
+      <c r="G175" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9d</v>
       </c>
-      <c r="H173" s="14" t="str">
+      <c r="I175" s="14" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_221() throws Exception { verify( (char) 221, "Ý"); }</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
-      <c r="A174">
+    <row r="176" spans="1:9">
+      <c r="A176">
         <f t="shared" si="11"/>
         <v>222</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B176" t="s">
+        <v>730</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" t="s">
         <v>731</v>
       </c>
-      <c r="C174" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E176" t="s">
         <v>732</v>
       </c>
-      <c r="E174" t="s">
-        <v>733</v>
-      </c>
-      <c r="F174" s="20" t="str">
+      <c r="F176" t="s">
+        <v>887</v>
+      </c>
+      <c r="G176" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9e</v>
       </c>
-      <c r="H174" s="25" t="str">
+      <c r="I176" s="25" t="str">
         <f t="shared" si="12"/>
         <v>@Test public void testConvert_222() throws Exception { verify( (char) 222, "Þ"); }</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175">
-        <f t="shared" ref="A175:A207" si="14">HEX2DEC(MID(B175,3,4))</f>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <f t="shared" ref="A177:A209" si="14">HEX2DEC(MID(B177,3,4))</f>
         <v>223</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B177" t="s">
+        <v>733</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D177" t="s">
         <v>734</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="E177" t="s">
         <v>735</v>
       </c>
-      <c r="E175" t="s">
-        <v>736</v>
-      </c>
-      <c r="F175" s="20" t="str">
+      <c r="G177" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\x9f</v>
       </c>
-      <c r="H175" s="14" t="str">
-        <f t="shared" ref="H175:H206" si="15">CONCATENATE("@Test public void testConvert_",A175,"() throws Exception { verify( (char) ",A175, ", """,C175,"""); }")</f>
+      <c r="I177" s="14" t="str">
+        <f t="shared" ref="I177:I208" si="15">CONCATENATE("@Test public void testConvert_",A177,"() throws Exception { verify( (char) ",A177, ", """,C177,"""); }")</f>
         <v>@Test public void testConvert_223() throws Exception { verify( (char) 223, "ß"); }</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
-      <c r="A176">
+    <row r="178" spans="1:9">
+      <c r="A178">
         <f t="shared" si="14"/>
         <v>224</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B178" t="s">
+        <v>736</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D178" t="s">
         <v>737</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="E178" t="s">
         <v>738</v>
       </c>
-      <c r="E176" t="s">
-        <v>739</v>
-      </c>
-      <c r="F176" s="20" t="str">
+      <c r="G178" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa0</v>
       </c>
-      <c r="H176" s="14" t="str">
+      <c r="I178" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_224() throws Exception { verify( (char) 224, "à"); }</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="A177">
+    <row r="179" spans="1:9">
+      <c r="A179">
         <f t="shared" si="14"/>
         <v>225</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B179" t="s">
+        <v>739</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="D179" t="s">
         <v>741</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E179" t="s">
         <v>742</v>
       </c>
-      <c r="E177" t="s">
-        <v>743</v>
-      </c>
-      <c r="F177" s="20" t="str">
+      <c r="G179" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa1</v>
       </c>
-      <c r="G177" t="s">
-        <v>850</v>
-      </c>
-      <c r="H177" s="14" t="str">
+      <c r="H179" t="s">
+        <v>849</v>
+      </c>
+      <c r="I179" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_225() throws Exception { verify( (char) 225, "á"); }</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="A178">
+    <row r="180" spans="1:9">
+      <c r="A180">
         <f t="shared" si="14"/>
         <v>226</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B180" t="s">
+        <v>743</v>
+      </c>
+      <c r="C180" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="C178" s="26" t="s">
+      <c r="D180" t="s">
         <v>745</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E180" t="s">
         <v>746</v>
       </c>
-      <c r="E178" t="s">
-        <v>747</v>
-      </c>
-      <c r="F178" s="20" t="str">
+      <c r="F180" t="s">
+        <v>886</v>
+      </c>
+      <c r="G180" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa2</v>
       </c>
-      <c r="H178" s="25" t="str">
+      <c r="I180" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_226() throws Exception { verify( (char) 226, "â"); }</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="A179">
+    <row r="181" spans="1:9">
+      <c r="A181">
         <f t="shared" si="14"/>
         <v>227</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B181" t="s">
+        <v>747</v>
+      </c>
+      <c r="C181" s="26" t="s">
         <v>748</v>
       </c>
-      <c r="C179" s="26" t="s">
+      <c r="D181" t="s">
         <v>749</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E181" t="s">
         <v>750</v>
       </c>
-      <c r="E179" t="s">
-        <v>751</v>
-      </c>
-      <c r="F179" s="20" t="str">
+      <c r="F181" t="s">
+        <v>885</v>
+      </c>
+      <c r="G181" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa3</v>
       </c>
-      <c r="H179" s="25" t="str">
+      <c r="I181" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_227() throws Exception { verify( (char) 227, "ã"); }</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180">
+    <row r="182" spans="1:9">
+      <c r="A182">
         <f t="shared" si="14"/>
         <v>228</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B182" t="s">
+        <v>751</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D182" t="s">
         <v>752</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="E182" t="s">
         <v>753</v>
       </c>
-      <c r="E180" t="s">
-        <v>754</v>
-      </c>
-      <c r="F180" s="20" t="str">
+      <c r="G182" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa4</v>
       </c>
-      <c r="H180" s="14" t="str">
+      <c r="I182" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_228() throws Exception { verify( (char) 228, "ä"); }</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
-      <c r="A181">
+    <row r="183" spans="1:9">
+      <c r="A183">
         <f t="shared" si="14"/>
         <v>229</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B183" t="s">
+        <v>754</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" t="s">
         <v>755</v>
       </c>
-      <c r="C181" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="E183" t="s">
         <v>756</v>
       </c>
-      <c r="E181" t="s">
-        <v>757</v>
-      </c>
-      <c r="F181" s="20" t="str">
+      <c r="F183" t="s">
+        <v>884</v>
+      </c>
+      <c r="G183" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa5</v>
       </c>
-      <c r="H181" s="25" t="str">
+      <c r="I183" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_229() throws Exception { verify( (char) 229, "å"); }</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182">
+    <row r="184" spans="1:9">
+      <c r="A184">
         <f t="shared" si="14"/>
         <v>230</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B184" t="s">
+        <v>757</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D184" t="s">
         <v>759</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E184" t="s">
         <v>760</v>
       </c>
-      <c r="E182" t="s">
-        <v>761</v>
-      </c>
-      <c r="F182" s="20" t="str">
+      <c r="G184" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa6</v>
       </c>
-      <c r="H182" s="14" t="str">
+      <c r="I184" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_230() throws Exception { verify( (char) 230, "æ"); }</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
-      <c r="A183">
+    <row r="185" spans="1:9">
+      <c r="A185">
         <f t="shared" si="14"/>
         <v>231</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B185" t="s">
+        <v>761</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D185" t="s">
         <v>762</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="E185" t="s">
         <v>763</v>
       </c>
-      <c r="E183" t="s">
-        <v>764</v>
-      </c>
-      <c r="F183" s="20" t="str">
+      <c r="G185" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa7</v>
       </c>
-      <c r="H183" s="14" t="str">
+      <c r="I185" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_231() throws Exception { verify( (char) 231, "ç"); }</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
-      <c r="A184">
+    <row r="186" spans="1:9">
+      <c r="A186">
         <f t="shared" si="14"/>
         <v>232</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B186" t="s">
+        <v>764</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D186" t="s">
         <v>765</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="E186" t="s">
         <v>766</v>
       </c>
-      <c r="E184" t="s">
-        <v>767</v>
-      </c>
-      <c r="F184" s="20" t="str">
+      <c r="G186" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa8</v>
       </c>
-      <c r="H184" s="14" t="str">
+      <c r="I186" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_232() throws Exception { verify( (char) 232, "è"); }</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185">
+    <row r="187" spans="1:9">
+      <c r="A187">
         <f t="shared" si="14"/>
         <v>233</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B187" t="s">
+        <v>767</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D187" t="s">
         <v>768</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="E187" t="s">
         <v>769</v>
       </c>
-      <c r="E185" t="s">
-        <v>770</v>
-      </c>
-      <c r="F185" s="20" t="str">
+      <c r="G187" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xa9</v>
       </c>
-      <c r="H185" s="14" t="str">
+      <c r="I187" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_233() throws Exception { verify( (char) 233, "é"); }</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
-      <c r="A186">
+    <row r="188" spans="1:9">
+      <c r="A188">
         <f t="shared" si="14"/>
         <v>234</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B188" t="s">
+        <v>770</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D188" t="s">
         <v>772</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E188" t="s">
         <v>773</v>
       </c>
-      <c r="E186" t="s">
-        <v>774</v>
-      </c>
-      <c r="F186" s="20" t="str">
+      <c r="G188" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xaa</v>
       </c>
-      <c r="H186" s="14" t="str">
+      <c r="I188" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_234() throws Exception { verify( (char) 234, "ê"); }</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
-      <c r="A187">
+    <row r="189" spans="1:9">
+      <c r="A189">
         <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B189" t="s">
+        <v>774</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D189" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="E189" t="s">
         <v>776</v>
       </c>
-      <c r="E187" t="s">
-        <v>777</v>
-      </c>
-      <c r="F187" s="20" t="str">
+      <c r="F189" t="s">
+        <v>883</v>
+      </c>
+      <c r="G189" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xab</v>
       </c>
-      <c r="H187" s="25" t="str">
+      <c r="I189" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_235() throws Exception { verify( (char) 235, "ë"); }</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="A188">
+    <row r="190" spans="1:9">
+      <c r="A190">
         <f t="shared" si="14"/>
         <v>236</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B190" t="s">
+        <v>777</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D190" t="s">
         <v>778</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="E190" t="s">
         <v>779</v>
       </c>
-      <c r="E188" t="s">
-        <v>780</v>
-      </c>
-      <c r="F188" s="20" t="str">
+      <c r="G190" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xac</v>
       </c>
-      <c r="H188" s="14" t="str">
+      <c r="I190" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_236() throws Exception { verify( (char) 236, "ì"); }</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189">
+    <row r="191" spans="1:9">
+      <c r="A191">
         <f t="shared" si="14"/>
         <v>237</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B191" t="s">
+        <v>780</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D191" t="s">
         <v>782</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E191" t="s">
         <v>783</v>
       </c>
-      <c r="E189" t="s">
-        <v>784</v>
-      </c>
-      <c r="F189" s="20" t="str">
+      <c r="G191" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xad</v>
       </c>
-      <c r="H189" s="14" t="str">
+      <c r="I191" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_237() throws Exception { verify( (char) 237, "í"); }</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="A190">
+    <row r="192" spans="1:9">
+      <c r="A192">
         <f t="shared" si="14"/>
         <v>238</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
+        <v>784</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D192" t="s">
         <v>786</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E192" t="s">
         <v>787</v>
       </c>
-      <c r="E190" t="s">
-        <v>788</v>
-      </c>
-      <c r="F190" s="20" t="str">
+      <c r="G192" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xae</v>
       </c>
-      <c r="H190" s="14" t="str">
+      <c r="I192" s="14" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_238() throws Exception { verify( (char) 238, "î"); }</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
-      <c r="A191">
+    <row r="193" spans="1:9">
+      <c r="A193">
         <f t="shared" si="14"/>
         <v>239</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B193" t="s">
+        <v>788</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" t="s">
         <v>789</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="E193" t="s">
         <v>790</v>
       </c>
-      <c r="E191" t="s">
-        <v>791</v>
-      </c>
-      <c r="F191" s="20" t="str">
+      <c r="F193" t="s">
+        <v>877</v>
+      </c>
+      <c r="G193" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xaf</v>
       </c>
-      <c r="H191" s="25" t="str">
+      <c r="I193" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_239() throws Exception { verify( (char) 239, "ï"); }</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
-      <c r="A192">
+    <row r="194" spans="1:9">
+      <c r="A194">
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B194" t="s">
+        <v>791</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D194" t="s">
         <v>792</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="E194" t="s">
         <v>793</v>
       </c>
-      <c r="E192" t="s">
-        <v>794</v>
-      </c>
-      <c r="F192" s="20" t="str">
+      <c r="F194" t="s">
+        <v>876</v>
+      </c>
+      <c r="G194" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb0</v>
       </c>
-      <c r="H192" s="25" t="str">
+      <c r="I194" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_240() throws Exception { verify( (char) 240, "ð"); }</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
-      <c r="A193">
+    <row r="195" spans="1:9">
+      <c r="A195">
         <f t="shared" si="14"/>
         <v>241</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B195" t="s">
+        <v>794</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D195" t="s">
         <v>795</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="E195" t="s">
         <v>796</v>
       </c>
-      <c r="E193" t="s">
-        <v>797</v>
-      </c>
-      <c r="F193" s="20" t="str">
+      <c r="F195" t="s">
+        <v>875</v>
+      </c>
+      <c r="G195" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb1</v>
       </c>
-      <c r="H193" s="25" t="str">
+      <c r="I195" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_241() throws Exception { verify( (char) 241, "ñ"); }</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194">
+    <row r="196" spans="1:9">
+      <c r="A196">
         <f t="shared" si="14"/>
         <v>242</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B196" t="s">
+        <v>797</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D196" t="s">
         <v>798</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E196" t="s">
         <v>799</v>
       </c>
-      <c r="E194" t="s">
-        <v>800</v>
-      </c>
-      <c r="F194" s="20" t="str">
+      <c r="F196" t="s">
+        <v>874</v>
+      </c>
+      <c r="G196" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb2</v>
       </c>
-      <c r="H194" s="25" t="str">
+      <c r="I196" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_242() throws Exception { verify( (char) 242, "ò"); }</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
-      <c r="A195">
+    <row r="197" spans="1:9">
+      <c r="A197">
         <f t="shared" si="14"/>
         <v>243</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B197" t="s">
+        <v>800</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D197" t="s">
         <v>802</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E197" t="s">
         <v>803</v>
       </c>
-      <c r="E195" t="s">
-        <v>804</v>
-      </c>
-      <c r="F195" s="20" t="str">
+      <c r="F197" t="s">
+        <v>873</v>
+      </c>
+      <c r="G197" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb3</v>
       </c>
-      <c r="H195" s="25" t="str">
+      <c r="I197" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_243() throws Exception { verify( (char) 243, "ó"); }</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
-      <c r="A196">
+    <row r="198" spans="1:9">
+      <c r="A198">
         <f t="shared" si="14"/>
         <v>244</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B198" t="s">
+        <v>804</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D198" t="s">
         <v>805</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="E198" t="s">
         <v>806</v>
       </c>
-      <c r="E196" t="s">
-        <v>807</v>
-      </c>
-      <c r="F196" s="20" t="str">
+      <c r="F198" t="s">
+        <v>872</v>
+      </c>
+      <c r="G198" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb4</v>
       </c>
-      <c r="H196" s="25" t="str">
+      <c r="I198" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_244() throws Exception { verify( (char) 244, "ô"); }</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
-      <c r="A197">
+    <row r="199" spans="1:9">
+      <c r="A199">
         <f t="shared" si="14"/>
         <v>245</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B199" t="s">
+        <v>807</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D199" t="s">
         <v>809</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E199" t="s">
         <v>810</v>
       </c>
-      <c r="E197" t="s">
-        <v>811</v>
-      </c>
-      <c r="F197" s="20" t="str">
+      <c r="F199" t="s">
+        <v>871</v>
+      </c>
+      <c r="G199" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb5</v>
       </c>
-      <c r="H197" s="25" t="str">
+      <c r="I199" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_245() throws Exception { verify( (char) 245, "õ"); }</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
-      <c r="A198">
+    <row r="200" spans="1:9">
+      <c r="A200">
         <f t="shared" si="14"/>
         <v>246</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B200" t="s">
+        <v>811</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D200" t="s">
         <v>812</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="E200" t="s">
         <v>813</v>
       </c>
-      <c r="E198" t="s">
-        <v>814</v>
-      </c>
-      <c r="F198" s="20" t="str">
+      <c r="F200" t="s">
+        <v>870</v>
+      </c>
+      <c r="G200" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb6</v>
       </c>
-      <c r="H198" s="25" t="str">
+      <c r="I200" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_246() throws Exception { verify( (char) 246, "ö"); }</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
-      <c r="A199">
+    <row r="201" spans="1:9">
+      <c r="A201">
         <f t="shared" si="14"/>
         <v>247</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B201" t="s">
+        <v>814</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D201" t="s">
         <v>815</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="E201" t="s">
         <v>816</v>
       </c>
-      <c r="E199" t="s">
-        <v>817</v>
-      </c>
-      <c r="F199" s="20" t="str">
+      <c r="F201" t="s">
+        <v>869</v>
+      </c>
+      <c r="G201" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb7</v>
       </c>
-      <c r="H199" s="25" t="str">
+      <c r="I201" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_247() throws Exception { verify( (char) 247, "÷"); }</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
-      <c r="A200">
+    <row r="202" spans="1:9">
+      <c r="A202">
         <f t="shared" si="14"/>
         <v>248</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B202" t="s">
+        <v>817</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D202" t="s">
         <v>819</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E202" t="s">
         <v>820</v>
       </c>
-      <c r="E200" t="s">
-        <v>821</v>
-      </c>
-      <c r="F200" s="20" t="str">
+      <c r="F202" t="s">
+        <v>868</v>
+      </c>
+      <c r="G202" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb8</v>
       </c>
-      <c r="H200" s="25" t="str">
+      <c r="I202" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_248() throws Exception { verify( (char) 248, "ø"); }</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
-      <c r="A201">
+    <row r="203" spans="1:9">
+      <c r="A203">
         <f t="shared" si="14"/>
         <v>249</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B203" t="s">
+        <v>821</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D203" t="s">
         <v>822</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="E203" t="s">
         <v>823</v>
       </c>
-      <c r="E201" t="s">
-        <v>824</v>
-      </c>
-      <c r="F201" s="20" t="str">
+      <c r="F203" t="s">
+        <v>867</v>
+      </c>
+      <c r="G203" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xb9</v>
       </c>
-      <c r="H201" s="25" t="str">
+      <c r="I203" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_249() throws Exception { verify( (char) 249, "ù"); }</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
-      <c r="A202">
+    <row r="204" spans="1:9">
+      <c r="A204">
         <f t="shared" si="14"/>
         <v>250</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B204" t="s">
+        <v>824</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D204" t="s">
         <v>826</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E204" t="s">
         <v>827</v>
       </c>
-      <c r="E202" t="s">
-        <v>828</v>
-      </c>
-      <c r="F202" s="20" t="str">
+      <c r="F204" t="s">
+        <v>866</v>
+      </c>
+      <c r="G204" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xba</v>
       </c>
-      <c r="H202" s="25" t="str">
+      <c r="I204" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_250() throws Exception { verify( (char) 250, "ú"); }</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203">
+    <row r="205" spans="1:9">
+      <c r="A205">
         <f t="shared" si="14"/>
         <v>251</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B205" t="s">
+        <v>828</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D205" t="s">
         <v>830</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E205" t="s">
         <v>831</v>
       </c>
-      <c r="E203" t="s">
-        <v>832</v>
-      </c>
-      <c r="F203" s="20" t="str">
+      <c r="F205" t="s">
+        <v>865</v>
+      </c>
+      <c r="G205" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xbb</v>
       </c>
-      <c r="H203" s="25" t="str">
+      <c r="I205" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_251() throws Exception { verify( (char) 251, "û"); }</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="A204">
+    <row r="206" spans="1:9">
+      <c r="A206">
         <f t="shared" si="14"/>
         <v>252</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B206" t="s">
+        <v>832</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D206" t="s">
         <v>833</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="E206" t="s">
         <v>834</v>
       </c>
-      <c r="E204" t="s">
-        <v>835</v>
-      </c>
-      <c r="F204" s="20" t="str">
+      <c r="F206" t="s">
+        <v>864</v>
+      </c>
+      <c r="G206" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xbc</v>
       </c>
-      <c r="H204" s="25" t="str">
+      <c r="I206" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_252() throws Exception { verify( (char) 252, "ü"); }</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
-      <c r="A205">
+    <row r="207" spans="1:9">
+      <c r="A207">
         <f t="shared" si="14"/>
         <v>253</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B207" t="s">
+        <v>835</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D207" t="s">
         <v>837</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E207" t="s">
         <v>838</v>
       </c>
-      <c r="E205" t="s">
-        <v>839</v>
-      </c>
-      <c r="F205" s="20" t="str">
+      <c r="F207" t="s">
+        <v>863</v>
+      </c>
+      <c r="G207" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xbd</v>
       </c>
-      <c r="H205" s="25" t="str">
+      <c r="I207" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_253() throws Exception { verify( (char) 253, "ý"); }</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206">
+    <row r="208" spans="1:9">
+      <c r="A208">
         <f t="shared" si="14"/>
         <v>254</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
+        <v>839</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D208" t="s">
         <v>841</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E208" t="s">
         <v>842</v>
       </c>
-      <c r="E206" t="s">
-        <v>843</v>
-      </c>
-      <c r="F206" s="20" t="str">
+      <c r="F208" t="s">
+        <v>862</v>
+      </c>
+      <c r="G208" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xbe</v>
       </c>
-      <c r="H206" s="25" t="str">
+      <c r="I208" s="25" t="str">
         <f t="shared" si="15"/>
         <v>@Test public void testConvert_254() throws Exception { verify( (char) 254, "þ"); }</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
-      <c r="A207">
+    <row r="209" spans="1:9">
+      <c r="A209">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
+        <v>843</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D209" t="s">
         <v>844</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="E209" t="s">
         <v>845</v>
       </c>
-      <c r="E207" t="s">
-        <v>846</v>
-      </c>
-      <c r="F207" s="20" t="str">
+      <c r="F209" t="s">
+        <v>861</v>
+      </c>
+      <c r="G209" s="20" t="str">
         <f t="shared" si="13"/>
         <v>\xc3\xbf</v>
       </c>
-      <c r="H207" s="25" t="str">
-        <f>CONCATENATE("@Test public void testConvert_",A207,"() throws Exception { verify( (char) ",A207, ", """,C207,"""); }")</f>
+      <c r="I209" s="25" t="str">
+        <f>CONCATENATE("@Test public void testConvert_",A209,"() throws Exception { verify( (char) ",A209, ", """,C209,"""); }")</f>
         <v>@Test public void testConvert_255() throws Exception { verify( (char) 255, "ÿ"); }</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="26" t="s">
+    <row r="213" spans="1:9">
+      <c r="A213" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="B213" t="s">
         <v>854</v>
       </c>
-      <c r="B211" t="s">
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="B214" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="29" t="s">
-        <v>854</v>
-      </c>
-      <c r="B212" t="s">
+    <row r="215" spans="1:9">
+      <c r="A215" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="B215" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="B213" t="s">
-        <v>857</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:E207">
+  <autoFilter ref="B1:E209">
     <filterColumn colId="3">
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>

--- a/conversion.xlsx
+++ b/conversion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="899">
   <si>
     <t>' r underbar</t>
   </si>
@@ -2717,7 +2717,10 @@
     <t>short combining i</t>
   </si>
   <si>
-    <t>this is the combining R. the logic will not replace by itself, but only when next to letters b/c order needs to be swapped</t>
+    <t>combining r. the logic will not replace by itself, but only when next to letters b/c order needs to be swapped</t>
+  </si>
+  <si>
+    <t>needs to be confirmed</t>
   </si>
 </sst>
 </file>
@@ -2853,8 +2856,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1155">
+  <cellStyleXfs count="1161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4048,7 +4057,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1155">
+  <cellStyles count="1161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4626,6 +4635,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5203,6 +5215,9 @@
     <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -6896,10 +6911,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B216" activeCellId="3" sqref="A1:XFD80 A84:XFD94 A99:XFD110 A113:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12295,6 +12310,14 @@
         <v>856</v>
       </c>
     </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="B216" t="s">
+        <v>898</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:E209">
     <filterColumn colId="3">
